--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_124.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_124.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32589-d77486-Reviews-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_124.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_124.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1359 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r536747586-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>32589</t>
+  </si>
+  <si>
+    <t>77486</t>
+  </si>
+  <si>
+    <t>536747586</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>When I checked in front desk person was being in training and it took for ever to get to the room. Had to call to ask for breakfast time and wi Fi connection. Room was ok and was upgraded one with sofa seater which was good. Breakfast time was 6/9 am. Area very small but I arrived late at 8;80 so on busy. Microwave would be a better add as I want my oat meal cereal from pack to be heated with milk. Wait person was kind enough to do that for me in kitchen behind Office.Lots of food places within half mile.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r534962310-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>534962310</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Disappointed With Stay</t>
+  </si>
+  <si>
+    <t>I am here on business. Arrived in room 309, and turned on my computer. No Wi-Fi. Went to the front desk to make my complaint, and another person also had the same issue.The front desk employee, Ish (name of person at front desk), was arrogant and offered no resolution to our problem. He said no complaints over Wi-Fi connection today or ever. I can call somebody on Monday. Hey we are here on Saturday not Mondy. I saw a signal to room 309, but the signal was so weak that my laptop could not connect. I was able to connect in this small lobby of the hotel. No Business Center here. Went back to room, Hotel has put the burden on me for Wi-Fi. Called the Oviss Wi-Fi company. They have a number to call in the room. No help. They will never return your call. Wi-Fi is terrible. If you are on a business trip forget about this hotel and look elsewhere. Save your money and time. If you decide to stay at this hotel make sure you get a room closer to the office because the Wi-Fi is a disaster. Zero support. No Free Wi-Fi in room as advertised.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am here on business. Arrived in room 309, and turned on my computer. No Wi-Fi. Went to the front desk to make my complaint, and another person also had the same issue.The front desk employee, Ish (name of person at front desk), was arrogant and offered no resolution to our problem. He said no complaints over Wi-Fi connection today or ever. I can call somebody on Monday. Hey we are here on Saturday not Mondy. I saw a signal to room 309, but the signal was so weak that my laptop could not connect. I was able to connect in this small lobby of the hotel. No Business Center here. Went back to room, Hotel has put the burden on me for Wi-Fi. Called the Oviss Wi-Fi company. They have a number to call in the room. No help. They will never return your call. Wi-Fi is terrible. If you are on a business trip forget about this hotel and look elsewhere. Save your money and time. If you decide to stay at this hotel make sure you get a room closer to the office because the Wi-Fi is a disaster. Zero support. No Free Wi-Fi in room as advertised.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r532113418-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>532113418</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Appalled</t>
+  </si>
+  <si>
+    <t>1) Just when i got into the room I layed over the bed to watch some tv, and saw long hairs to both of my sides.  I panicked but tried to calm myself thinking those could be mine, but I saw too many, so I uncovered the bed to see the bed sheets and there where even more hairs in the bedsheets, obviously those were not mine.  2) Already in panic attack, I could not believe there was a stain in the bedsheets, it look sticky.3) I survived the night by changing to the other bed, which was clean (the difference of beds was day and night).  However in the morning I was in the restroom and saw below the door knob a stain as big 2 quarters, it was kind of red/brown, at that point I really could not know what else to expect It was a horrible experience, don't know what else to say, I would be embarrased to offer that kind of service really, on my side, I was very angry that the room was that nasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>1) Just when i got into the room I layed over the bed to watch some tv, and saw long hairs to both of my sides.  I panicked but tried to calm myself thinking those could be mine, but I saw too many, so I uncovered the bed to see the bed sheets and there where even more hairs in the bedsheets, obviously those were not mine.  2) Already in panic attack, I could not believe there was a stain in the bedsheets, it look sticky.3) I survived the night by changing to the other bed, which was clean (the difference of beds was day and night).  However in the morning I was in the restroom and saw below the door knob a stain as big 2 quarters, it was kind of red/brown, at that point I really could not know what else to expect It was a horrible experience, don't know what else to say, I would be embarrased to offer that kind of service really, on my side, I was very angry that the room was that nasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r510297523-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>510297523</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Disappointed second visit there.</t>
+  </si>
+  <si>
+    <t>Had stayed there a couple of years ago and our stay was overall a good one but we stayed two nights in August and was disappointed.  Room was clean except for a small black spider in my bed.  The television was very old.  They had rigged some kind of device to make the remote work but it didn't and you couldn't turn it on or off and no volume control.  Wanted to purchase bottled water in vending machine but it never worked.  Overall our stay was not what we expected.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r507252784-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>507252784</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Average place to stay.</t>
+  </si>
+  <si>
+    <t>The room was average other than the spa tub.  Considering that fact that all of the rooms are supposed to be non-smoking in the state of California, the first room that my wife and I were offered reeked of cigarette smoke.  The second room was in the very back of the building which gave us questionable wifi abilities.  The free breakfast was good.  However, the room was small and others had to either eat outside or in the lobby.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r472534823-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>472534823</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>WHAT A DUMP ! !</t>
+  </si>
+  <si>
+    <t>Tried to give me a room with a broken latch and door would not close. No TV reception except Spanish. Called maintenance twice and very little English. Shook the cables and all fixed. After 1 night checked out to discover other rooms had no TV either. Went across the freeway to best western and paid five less and 300% better room.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r465953262-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>465953262</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>BUYER BEWARE!!! DO NOT STAY AT THIS LOCATION!!!!</t>
+  </si>
+  <si>
+    <t>Staff members are EXTREMELY Rude (Especially Guest Service Agent - Lynn).  Showed up at hotel at 4am with a Guaranteed Reservation to which staff member made us wait outside in the cold for 1hr before allowing us to check-in.  When we complained about the long check-in, Guest Service Agent Lynn threatened to call police and refuse service for her rude attitude.  I advise EVERYONE not to stay here.  You will regret your experience.... If word of mouth means anything, Stay anywhere else but here.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r462315273-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>462315273</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Shower didn't work</t>
+  </si>
+  <si>
+    <t>We checked in at the Comfort Inn at Irvine Spectrum in the evening on February 11, 2017.When opening the door we saw that the room had not been cleaned or made up. The person at the desk apologized and assigned us a different room. We could not take a shower in the morning since we could not get the water to turn on. The shower knob was stuck. The sink drain plug was also stuck shut.I may as well mention that the toilet seat was shifted to one side. The sheets were very thin and worn. People talking outside woke us up three times during the hours of 1:00 am to 5:00 am so we did not get a good nights sleep. We decided to  just check out and get on the road.  I would not recommend staying at the Comfort Inn at this location. This was our first bad experience with a Comfort Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We checked in at the Comfort Inn at Irvine Spectrum in the evening on February 11, 2017.When opening the door we saw that the room had not been cleaned or made up. The person at the desk apologized and assigned us a different room. We could not take a shower in the morning since we could not get the water to turn on. The shower knob was stuck. The sink drain plug was also stuck shut.I may as well mention that the toilet seat was shifted to one side. The sheets were very thin and worn. People talking outside woke us up three times during the hours of 1:00 am to 5:00 am so we did not get a good nights sleep. We decided to  just check out and get on the road.  I would not recommend staying at the Comfort Inn at this location. This was our first bad experience with a Comfort Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r454076636-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>454076636</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>The best bargain in a very nice area</t>
+  </si>
+  <si>
+    <t>This is not your typical motel type establishment...clean nice amenities,rooms are very clean and equiped with iron and ironing board..hairdryer..toiletries even a mini mit to shine your shoes. They have cordial and helpful staff...close to.shops...i will stay here again...</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r435224448-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>435224448</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Location perfect for my reason to be in Irvine.  Basic accommodation, served my needs.  Big room.  Liked the big fridge.  No microwave.  Bed was comfortable.  Very strange to have only one set of towels.  Just when I needed more to clean up a mess from airplane, had to wash my entire toiletry bag before heading back on plane next day, but nothing to dry other than hair dryer.  Took a lot of time which I didn't have, but it worked at the end.  No time to go downstairs for breakfast, so not sure quality.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r423336840-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>423336840</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Horrible service</t>
+  </si>
+  <si>
+    <t>So I stayed her for two nights and when I left I went to the lobby to get my deposit.I waited a long time in the lobby for the for the lady to check my room to make sure that I can get my deposit back for incidentals. When she got back she said I would not be getting back my $70 cash deposit which by the way who pay $70 for a deposit. She said that I had put it old bloodstain on there that I had to pay for the towel. There was a towel that had what she called dry blood that look like a Mud that was on there from 1927.so she said I had to pay for that towel as well when I asked her how much I had to pay she said it was $25 each towels and gave me back $20. I feel like she pocketed The money. Also may i add when it came time to check out she barged into my room while I was naked to tell me that it was checkout time. I have never before in my life experience anything like this that I will never go back there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>So I stayed her for two nights and when I left I went to the lobby to get my deposit.I waited a long time in the lobby for the for the lady to check my room to make sure that I can get my deposit back for incidentals. When she got back she said I would not be getting back my $70 cash deposit which by the way who pay $70 for a deposit. She said that I had put it old bloodstain on there that I had to pay for the towel. There was a towel that had what she called dry blood that look like a Mud that was on there from 1927.so she said I had to pay for that towel as well when I asked her how much I had to pay she said it was $25 each towels and gave me back $20. I feel like she pocketed The money. Also may i add when it came time to check out she barged into my room while I was naked to tell me that it was checkout time. I have never before in my life experience anything like this that I will never go back there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r418576389-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>418576389</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoy the staff and accommodations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We've stayed here many times. They're friendly, flexible, clean, and supply everything to meet our expectations. The AC worked great, bedding was comfortable, and the location is convenient and private. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r399341833-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>399341833</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Weekend Sporting event</t>
+  </si>
+  <si>
+    <t>Wow! I was thinking this was going to be like a Hampton Inn or Best Western but far from it. The feeling I got here was that of a motel 6 . Seriously a Shortage of towels,Jaquzzi needs repair to be safe to get in it, stained carpeting, Smelled like a cigarette in the room , Air barely worked, and actually We first entered the room the air was off and took half the night to finally cool enough to sleep. My family all took cold showers just to bare the temp in the room. Would have left the reservation if I hadn't booked threw booking.Com, in which the booking site said "Free cancellation" and as soon as I booked and the email came back with a "no cancellation policy", having booked a three night stay I was not going to leave the reservation, so there's the two star review for a two star hotel .MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow! I was thinking this was going to be like a Hampton Inn or Best Western but far from it. The feeling I got here was that of a motel 6 . Seriously a Shortage of towels,Jaquzzi needs repair to be safe to get in it, stained carpeting, Smelled like a cigarette in the room , Air barely worked, and actually We first entered the room the air was off and took half the night to finally cool enough to sleep. My family all took cold showers just to bare the temp in the room. Would have left the reservation if I hadn't booked threw booking.Com, in which the booking site said "Free cancellation" and as soon as I booked and the email came back with a "no cancellation policy", having booked a three night stay I was not going to leave the reservation, so there's the two star review for a two star hotel .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r399225615-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>399225615</t>
+  </si>
+  <si>
+    <t>Terrible Business Practice</t>
+  </si>
+  <si>
+    <t>I am sitting in the hotel lobby right now after learning they have double booked my room and sounds to be a regular practice. We PREPAID $804.60 for three King Size Beds.  Come to find out, when your showing up mid-day, they double book your room (that you've already PAID for in Full) and when you show up, you're screwed. We travel 250 nights a year and when you pay for a room, ahead of time, that is your contract that holds that room.  This appears to be a standard practice for them to double their revenue.  We are being told now that they only have a queen and doubles, that we would have to settle for.  I have asked them to get us what we have paid for either here or somewhere else, and they don't seem very receptive to helping and quite embarrassed that someone has discovered their business practice. Very upset right now as we are tired and feel like we are being stolen from. MoreShow less</t>
+  </si>
+  <si>
+    <t>I am sitting in the hotel lobby right now after learning they have double booked my room and sounds to be a regular practice. We PREPAID $804.60 for three King Size Beds.  Come to find out, when your showing up mid-day, they double book your room (that you've already PAID for in Full) and when you show up, you're screwed. We travel 250 nights a year and when you pay for a room, ahead of time, that is your contract that holds that room.  This appears to be a standard practice for them to double their revenue.  We are being told now that they only have a queen and doubles, that we would have to settle for.  I have asked them to get us what we have paid for either here or somewhere else, and they don't seem very receptive to helping and quite embarrassed that someone has discovered their business practice. Very upset right now as we are tired and feel like we are being stolen from. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r399150312-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>399150312</t>
+  </si>
+  <si>
+    <t>Everything you expect at an affordable price!</t>
+  </si>
+  <si>
+    <t>The Irvine Spectrum Inn has a full service breakfast with delicious granola, walnut pieces, raisins, bananas and fresh fruit! I found the lemon water in the lobby wonderfully refreshing. Of course, the fridge, variety of pillows and good mattress make for a relaxing sleep. This inn is located in a quiet neighborhood with a pleasant atmosphere. Highly recommended!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r392382953-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>392382953</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All love </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So using Priceline name your own price I was a little nervous when booked at a comfort inn again after my horrible experience I had at the San Diego comfort suites in MiraMesa but to my surprise the staff was nothing but nice and we're extremely accommodating by giving me an early check-in at no extra fee .. I might add the breakfast is pretty good for how cheep the room was thanks for the great stay </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r392365456-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>392365456</t>
+  </si>
+  <si>
+    <t>Nice Comfort Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stopped here late Sunday night, room price more than we like to pay, but was comparable to other nearby hotels. Room was nonsmoking and smelled just fine. King bed very comfortable, nothing lacking. Shower temp was very good, tv/internet worked just fine. It's actually in a nice area with food choices right next door. Easy access to 405 and 5 freeways. Did not try their breakfast but are breakfast next door at Coco's instead. Parking for trailer or large truck is very limited. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r389477925-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>389477925</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Tremendously horrible all around</t>
+  </si>
+  <si>
+    <t>All we were looking for was a clean place to sleep that offered wifi. Didn't need ANYTHING else. So, the bed was OK, pillows, were ripe with the smell of fabreeze, and the room had the smell of stale smoke. Tried getting on the WiFi...the code wouldn't take. Tried my laptop, my wife laptop, my iPad and my wife's iPad. nothing. Called the front desk to make sure we had the right code. We did. He replied that we are the first one's ever to not be able to get on WiFi and for us to call the provider. So, no wifi...what to do now? well, lets watch some TV...great, no TV signal on majority of the channels, and to check with the front desk. Tried calling the front desk. no one answered. waited 10 minutes. called again. explained the issue. his response was "yeah, that happens". you just have to wait. next morning, the fresh continental breakfast was basically stale pastries and instant coffee At checkout, unable to get a receipt, as I have to go online or wherever i booked the room for a receipt. Horrendous and shame on the owners for having a crappy staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>All we were looking for was a clean place to sleep that offered wifi. Didn't need ANYTHING else. So, the bed was OK, pillows, were ripe with the smell of fabreeze, and the room had the smell of stale smoke. Tried getting on the WiFi...the code wouldn't take. Tried my laptop, my wife laptop, my iPad and my wife's iPad. nothing. Called the front desk to make sure we had the right code. We did. He replied that we are the first one's ever to not be able to get on WiFi and for us to call the provider. So, no wifi...what to do now? well, lets watch some TV...great, no TV signal on majority of the channels, and to check with the front desk. Tried calling the front desk. no one answered. waited 10 minutes. called again. explained the issue. his response was "yeah, that happens". you just have to wait. next morning, the fresh continental breakfast was basically stale pastries and instant coffee At checkout, unable to get a receipt, as I have to go online or wherever i booked the room for a receipt. Horrendous and shame on the owners for having a crappy staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r373203428-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>373203428</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Very nice and good value</t>
+  </si>
+  <si>
+    <t>Very nice hotel, room looked like it was almost new inside.  All the amenities, only one block off the main east-west boulevard, lots of restaurants of all kinds nearby.  Room and bath very clean.  Towels, linens, and bedding looked almost new.  Would stay here again for sure.  Great value and location just off I-5.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Comfort Inn L, Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel, room looked like it was almost new inside.  All the amenities, only one block off the main east-west boulevard, lots of restaurants of all kinds nearby.  Room and bath very clean.  Towels, linens, and bedding looked almost new.  Would stay here again for sure.  Great value and location just off I-5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r370726237-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>370726237</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Easy access off freeway</t>
+  </si>
+  <si>
+    <t>We just needed a bed to sleep in and the comfort inn was great. We arrived at 3 am and left at 7 am. Room was clean, updated although no frills but none needed. Was super noisy early in the morning. Staff was friendly and had a small continental breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>We just needed a bed to sleep in and the comfort inn was great. We arrived at 3 am and left at 7 am. Room was clean, updated although no frills but none needed. Was super noisy early in the morning. Staff was friendly and had a small continental breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r354898100-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>354898100</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>A decent bed, that's it</t>
+  </si>
+  <si>
+    <t>If your looking for a clean place with a decent bed, this is it. Walking distance to food, shopping etc. Exterior is rough, the pool not so nice. When there the lots of loud people. All in all it was an OK place for a night or two. As a guy who spends 100+ nights a year in hotels, the place is a 3 all around. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Comfort Inn L, Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>If your looking for a clean place with a decent bed, this is it. Walking distance to food, shopping etc. Exterior is rough, the pool not so nice. When there the lots of loud people. All in all it was an OK place for a night or two. As a guy who spends 100+ nights a year in hotels, the place is a 3 all around. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r321728148-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>321728148</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Clean, but tired facility</t>
+  </si>
+  <si>
+    <t>The room was very clean. Bathroom toilet had a broken seat. Plenty of bath towels, but not the thickest. Hotel toiletries sparse, only soap and lotion, no shampoo or conditioner. Shower nice with good hot water pressure. Tall guests will like the high shower-head. The bed was nice for a good night's sleep. Nice comfortable pillows and clean fresh bedding. Room a/c so-so, varying room temps. Nice little balcony. Room has microwave and nicely sized refrigerator. Nice flatscreen TV with plenty of channels. The outside area of the hotel is really tired and need of serious repair. This hotel seems to be run with minimal budget. They store boat(s) and other recreational toys in the parking lot which detracts from the business. The check-in attendant is friendly, but she shouldn't be broadcasting room numbers out loud with other guests present. They serve breakfast, but you have to get up early, service 6am-9am. The pool looked clean, but the spa looked cloudy and of need of serious cleaning. This was an adequate Comfort Inn stay, but they really need to put some funds into the facility grounds and buildings or hire new grounds and/or maintenance staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The room was very clean. Bathroom toilet had a broken seat. Plenty of bath towels, but not the thickest. Hotel toiletries sparse, only soap and lotion, no shampoo or conditioner. Shower nice with good hot water pressure. Tall guests will like the high shower-head. The bed was nice for a good night's sleep. Nice comfortable pillows and clean fresh bedding. Room a/c so-so, varying room temps. Nice little balcony. Room has microwave and nicely sized refrigerator. Nice flatscreen TV with plenty of channels. The outside area of the hotel is really tired and need of serious repair. This hotel seems to be run with minimal budget. They store boat(s) and other recreational toys in the parking lot which detracts from the business. The check-in attendant is friendly, but she shouldn't be broadcasting room numbers out loud with other guests present. They serve breakfast, but you have to get up early, service 6am-9am. The pool looked clean, but the spa looked cloudy and of need of serious cleaning. This was an adequate Comfort Inn stay, but they really need to put some funds into the facility grounds and buildings or hire new grounds and/or maintenance staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r313479549-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>313479549</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>Great Staff and customer service</t>
+  </si>
+  <si>
+    <t>I have being staying at this Comfort Inn for the past 2 1/2 years every week. I wanted to thank the manager Kevin and his staff ( Jemma, Ed, Sara, and Ben ) for their excellent customer service. They always have a smile on their faces and take care of any needs I may have. The rooms are always ready and very clean. The breakfast is always hot and on time when I get off of work at 6am. The area has a few places to eat like Carl's Jr which is just across the street. Another place is Baja Fish Tacos just around the corner in the strip mall.  The Comfort Inn is quite during the day when I sleep which is really important for me. I would recommend staying here. Thanks again for all you do for me. Marshall R.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I have being staying at this Comfort Inn for the past 2 1/2 years every week. I wanted to thank the manager Kevin and his staff ( Jemma, Ed, Sara, and Ben ) for their excellent customer service. They always have a smile on their faces and take care of any needs I may have. The rooms are always ready and very clean. The breakfast is always hot and on time when I get off of work at 6am. The area has a few places to eat like Carl's Jr which is just across the street. Another place is Baja Fish Tacos just around the corner in the strip mall.  The Comfort Inn is quite during the day when I sleep which is really important for me. I would recommend staying here. Thanks again for all you do for me. Marshall R.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r312537718-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>312537718</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great stay. Last minute reservation and was treated with great service. Will stop again when we travel south again.  We always try to stay only with Comfort inns. Being able to have breakfast before leaving is always a plus. Thanks for a great stay!     MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort Inn L, Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Great stay. Last minute reservation and was treated with great service. Will stop again when we travel south again.  We always try to stay only with Comfort inns. Being able to have breakfast before leaving is always a plus. Thanks for a great stay!     More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r308563288-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>308563288</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Friendy and Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>We had a wonderful overnight at the Inn and the person at the front desk was so helpful and friendly. Great sleep and breakfast the next morning. Very pretty location and very clean! It was great! Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Comfort Inn L, Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>We had a wonderful overnight at the Inn and the person at the front desk was so helpful and friendly. Great sleep and breakfast the next morning. Very pretty location and very clean! It was great! Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r307982942-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>307982942</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Overnight for soccer</t>
+  </si>
+  <si>
+    <t>This was a really nice location for a soccer tournament. Why battle traffic back to San Diego....Close to freeway, exactly what we expected, clean, comfortable, friendly service, breakfast was fine.... It is/was, as we hoped....Don't hesitate on a short term hotel.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort Inn L, Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>This was a really nice location for a soccer tournament. Why battle traffic back to San Diego....Close to freeway, exactly what we expected, clean, comfortable, friendly service, breakfast was fine.... It is/was, as we hoped....Don't hesitate on a short term hotel.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r307625912-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>307625912</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Good location and stay</t>
+  </si>
+  <si>
+    <t>This is our first stay here at the Comfort Inn, visiting family in the area (normally stay further down the street). We had a very good stay, the room was quiet even though the hotel was fully booked (our room was on the 2nd floor on the same side as the office - this is the quiet side, away from the 405). The room was very spacious with a couch, standard room decor, but very clean. There was a nice sized fridge in the room too.  The pillows were decent and the bed was a little hard for me, but still got a reasonable nights sleep.  WiFi was hard to sign on to, but once that was accomplished, the speed was ok.Only 2 things to be aware of:  there is no coffee maker in your room and the dining area is pretty small for breakfast. When it's busy in there, it's hard to get to the food.Definitely would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort Inn L, Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded September 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2015</t>
+  </si>
+  <si>
+    <t>This is our first stay here at the Comfort Inn, visiting family in the area (normally stay further down the street). We had a very good stay, the room was quiet even though the hotel was fully booked (our room was on the 2nd floor on the same side as the office - this is the quiet side, away from the 405). The room was very spacious with a couch, standard room decor, but very clean. There was a nice sized fridge in the room too.  The pillows were decent and the bed was a little hard for me, but still got a reasonable nights sleep.  WiFi was hard to sign on to, but once that was accomplished, the speed was ok.Only 2 things to be aware of:  there is no coffee maker in your room and the dining area is pretty small for breakfast. When it's busy in there, it's hard to get to the food.Definitely would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r303543624-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>303543624</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>I enjoyed myself</t>
+  </si>
+  <si>
+    <t>The place was clean , I didn't even see finger prints on the front doors , clean glass . The service desk was professional and friendly.To me that tells if a place is kept up its all the little things.     MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Comfort Inn L, Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded August 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2015</t>
+  </si>
+  <si>
+    <t>The place was clean , I didn't even see finger prints on the front doors , clean glass . The service desk was professional and friendly.To me that tells if a place is kept up its all the little things.     More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r295972484-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>295972484</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Great value for the area</t>
+  </si>
+  <si>
+    <t>Clean updated rooms, loved the option to walk out on balcony. (Beautiful sunset) Walking distance from at least three restaurants. (Cocos, Carl Jr, and Baha Tacos) Great value when compared to other hotels in the area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>CA448, Front Office Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Clean updated rooms, loved the option to walk out on balcony. (Beautiful sunset) Walking distance from at least three restaurants. (Cocos, Carl Jr, and Baha Tacos) Great value when compared to other hotels in the area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r295862856-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>295862856</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Clean and good location</t>
+  </si>
+  <si>
+    <t>We stayed here to be close to Irvine Meadows. The room was clean and included a microwave, refrigerator, and coffee maker. The only thing it didn't have is a blow dryer. For a lower end motel, this was very nice and comparable to other hotels we were looking at in the area. It was a little expensive compared to nicer hotels I've stayed at for less but since it was clean and conveniently located, we were very happy. The only problem was the parking lot is small and at the end of the night, all the parking spaces were taken. Very nice staff and they even have a small pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>CA448, Front Office Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here to be close to Irvine Meadows. The room was clean and included a microwave, refrigerator, and coffee maker. The only thing it didn't have is a blow dryer. For a lower end motel, this was very nice and comparable to other hotels we were looking at in the area. It was a little expensive compared to nicer hotels I've stayed at for less but since it was clean and conveniently located, we were very happy. The only problem was the parking lot is small and at the end of the night, all the parking spaces were taken. Very nice staff and they even have a small pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r292488514-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>292488514</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Pleasure</t>
+  </si>
+  <si>
+    <t>Good price and the staff was friendly and helpful,  Our room was clean and the king bed was comfortable.  There is a fridge and micro wave.  Breakfast was typical.  They had the plates in the corner which had all the guests reaching over each other to get started with their breakfast.   We went to an Angels game and it took us about 45 minutes.  We had traffic.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Good price and the staff was friendly and helpful,  Our room was clean and the king bed was comfortable.  There is a fridge and micro wave.  Breakfast was typical.  They had the plates in the corner which had all the guests reaching over each other to get started with their breakfast.   We went to an Angels game and it took us about 45 minutes.  We had traffic.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r277219130-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>277219130</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>A place to sleep, nothing more</t>
+  </si>
+  <si>
+    <t>This was recommended by a co-worker - I should have passed. It's a very marginal motel with average rooms and a less-than-average breakfast. It was also noisy, as the door to the room opens to the outside rather than a hallway. I would not stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This was recommended by a co-worker - I should have passed. It's a very marginal motel with average rooms and a less-than-average breakfast. It was also noisy, as the door to the room opens to the outside rather than a hallway. I would not stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r274913352-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>274913352</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Nice and convenient</t>
+  </si>
+  <si>
+    <t>This was a nice little hotel to stay in on our last minute trip to Laguna. It was only a ten minute drive down to the beach. There was a amazing little pizza shop in walking distance. The continental breakfast was not so good and the pool was not open when it was due to beMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This was a nice little hotel to stay in on our last minute trip to Laguna. It was only a ten minute drive down to the beach. There was a amazing little pizza shop in walking distance. The continental breakfast was not so good and the pool was not open when it was due to beMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r260134385-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>260134385</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Average Hotel, Average Breakfast</t>
+  </si>
+  <si>
+    <t>I stayed at this property one night for work. I had a ground floor room. It was clean and the bathroom was modern. Check in took about 15 minutes as only one person was working when i checked in. Breakfast was fairly dull, Waffles or sausage breakfast muffins. I would stay again as it is close to my work. Price is good compared to hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this property one night for work. I had a ground floor room. It was clean and the bathroom was modern. Check in took about 15 minutes as only one person was working when i checked in. Breakfast was fairly dull, Waffles or sausage breakfast muffins. I would stay again as it is close to my work. Price is good compared to hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r259163733-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>259163733</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Great Location!</t>
+  </si>
+  <si>
+    <t>I enjoyed this hotel.  The room we got has new carpet so it has an odor but it doesn't bother us.  I'd rather a new carpet smell than some unknown odor.  The check-in process was smooth and quick.  The room overall was clean and comfortable.  Everything was in working order.  We got a room on the third floor so that was great!  What I liked most was the proximity to the Irvine Spectrum shopping mall and is surrounded by mostly offices.  Breakfast was good and typical for a Comfort Inn.  Check-out was quick and simple as well.  Since I used my points I didn't have to pay for anything for two nights.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I enjoyed this hotel.  The room we got has new carpet so it has an odor but it doesn't bother us.  I'd rather a new carpet smell than some unknown odor.  The check-in process was smooth and quick.  The room overall was clean and comfortable.  Everything was in working order.  We got a room on the third floor so that was great!  What I liked most was the proximity to the Irvine Spectrum shopping mall and is surrounded by mostly offices.  Breakfast was good and typical for a Comfort Inn.  Check-out was quick and simple as well.  Since I used my points I didn't have to pay for anything for two nights.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r252919943-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>252919943</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>Comfortable, Quiet, Safe, Fair Price</t>
+  </si>
+  <si>
+    <t>This place is well located, very clean, and very quiet.  No grimy feeling, and didn't feel like a meth addict was going to jump out and mug me.  The service was good, and the staff was pleasant.  When bargain hunting for hotels, I often worry about what I am going to encounter when I get there.  I this case, I was pleasantly surprised.  When I left and came back, I didn't feel like I had to have my head on a swivel (even though I always keep my head on a swivel).  I would stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is well located, very clean, and very quiet.  No grimy feeling, and didn't feel like a meth addict was going to jump out and mug me.  The service was good, and the staff was pleasant.  When bargain hunting for hotels, I often worry about what I am going to encounter when I get there.  I this case, I was pleasantly surprised.  When I left and came back, I didn't feel like I had to have my head on a swivel (even though I always keep my head on a swivel).  I would stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r219080313-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>219080313</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>A wonderful and comfortable stay</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 40 days. The stay was very comfortable. The staff and their amenities are very good. The breakfast is also good and has a variety of options to choose. The ambiance is noise free.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 40 days. The stay was very comfortable. The staff and their amenities are very good. The breakfast is also good and has a variety of options to choose. The ambiance is noise free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r217467225-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>217467225</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>OLD hotel</t>
+  </si>
+  <si>
+    <t>The hotel is okay.  The rooms were clean and the breakfast wasn't bad.  However, the hotel is really old.  That, and the fact that the elevator is a sardine can and slower than molasses.  Overall, the place isn't bad.  Considering what our rate was, I just expected a little better. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is okay.  The rooms were clean and the breakfast wasn't bad.  However, the hotel is really old.  That, and the fact that the elevator is a sardine can and slower than molasses.  Overall, the place isn't bad.  Considering what our rate was, I just expected a little better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r216494438-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>216494438</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Clean and quiet place to relax.</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick business trip this week. It was clean, beds were very comfortable and the front office staff were very nice and helpful. Breakfast variety was pretty small but if you just need coffee and a waffle, you are all set! Really good deal for the price and would gladly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick business trip this week. It was clean, beds were very comfortable and the front office staff were very nice and helpful. Breakfast variety was pretty small but if you just need coffee and a waffle, you are all set! Really good deal for the price and would gladly stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r201838576-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>201838576</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>The staff was great and always happy.The young lady at the front desk very helpful.She kept the AM buffet going and always had a smile.The only thing missing was an exercise room.I will see them next yearMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>CA448, Front Office Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded May 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2014</t>
+  </si>
+  <si>
+    <t>The staff was great and always happy.The young lady at the front desk very helpful.She kept the AM buffet going and always had a smile.The only thing missing was an exercise room.I will see them next yearMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r195617461-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>195617461</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Good value hotel</t>
+  </si>
+  <si>
+    <t>$75; very clean and quiet.  A good night's sleep; free breakfast and wifi. I'll stay there again. About 15 minutes from John Wayne Airport down the 405.  Free parking too.  And a few more characters to get to 200 minimum......... Thybuioknbfresxc vuiol,nbvrescvhuikmiiijjjjjnnbgftyuiooo Holt bleep how many characters does it take to get to 200!!!!!!nbvfewxcvhnkool,mbbgyuiol,mbvrescvMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>CA448, Front Office Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>$75; very clean and quiet.  A good night's sleep; free breakfast and wifi. I'll stay there again. About 15 minutes from John Wayne Airport down the 405.  Free parking too.  And a few more characters to get to 200 minimum......... Thybuioknbfresxc vuiol,nbvrescvhuikmiiijjjjjnnbgftyuiooo Holt bleep how many characters does it take to get to 200!!!!!!nbvfewxcvhnkool,mbbgyuiol,mbvrescvMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r193121717-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>193121717</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Happy travelers</t>
+  </si>
+  <si>
+    <t>Quiet location, nice Jacuzzi, above average breakfast, professional staff.  Edwin on the night shift was especially friendly and helpful.  My companion is sensitive to noise and various odors, and this hotel passed her exam.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>CA448, Front Office Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded February 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2014</t>
+  </si>
+  <si>
+    <t>Quiet location, nice Jacuzzi, above average breakfast, professional staff.  Edwin on the night shift was especially friendly and helpful.  My companion is sensitive to noise and various odors, and this hotel passed her exam.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r176127967-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>176127967</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>Just Fine for the family</t>
+  </si>
+  <si>
+    <t>I took my two boy's here for two nights while visiting friends and it was clean and the staff was courteous but after going to amusement parks all day I wanted to sit in the hot tub and use the pool ~ it closed at 9:00 and they put a pad lock on it. It seemed a little early for me. There was no coffee makers in the room which would have been nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I took my two boy's here for two nights while visiting friends and it was clean and the staff was courteous but after going to amusement parks all day I wanted to sit in the hot tub and use the pool ~ it closed at 9:00 and they put a pad lock on it. It seemed a little early for me. There was no coffee makers in the room which would have been nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r159204852-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>159204852</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>will not be back</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night. the staff is really nice but not the best hotel. it was dirty and did not feel safe and very noisy. Internet and parking is free. will not be back. rather stay at another hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night. the staff is really nice but not the best hotel. it was dirty and did not feel safe and very noisy. Internet and parking is free. will not be back. rather stay at another hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r148752896-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>148752896</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>I had flight problems with cancelled flights due to bad weather in Chicago and called the hotel to let them know I might not get a flight and the desk clerk said no problem she would allow me to use my two nights stay beginning the next night. I did get a late night flight out and arrived at the hotel at 4 am but the desk clerk said I could not check in as his computer had me arriving later. He advised me I could pay $89 plus tax to check even though my rooms were prepaid. To make a long story short, I slept in my car in the parking lot.The room upon checkin after 4 pm had two neighbor room's air conditioning fans howling and making loud striking noises which I was told by the clerk was out of her hands and should not bother me much when in my room. Superb maintenance and customer service were not available at this property. Not a great stay for me and wish I had chosen the Best Western rather than Comfort Inn Irvine.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I had flight problems with cancelled flights due to bad weather in Chicago and called the hotel to let them know I might not get a flight and the desk clerk said no problem she would allow me to use my two nights stay beginning the next night. I did get a late night flight out and arrived at the hotel at 4 am but the desk clerk said I could not check in as his computer had me arriving later. He advised me I could pay $89 plus tax to check even though my rooms were prepaid. To make a long story short, I slept in my car in the parking lot.The room upon checkin after 4 pm had two neighbor room's air conditioning fans howling and making loud striking noises which I was told by the clerk was out of her hands and should not bother me much when in my room. Superb maintenance and customer service were not available at this property. Not a great stay for me and wish I had chosen the Best Western rather than Comfort Inn Irvine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r142666191-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>142666191</t>
+  </si>
+  <si>
+    <t>10/12/2012</t>
+  </si>
+  <si>
+    <t>Good location for exploring the OC</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel as we wanted a base for exploring South of LA and we weren't disappointed.  We were allowed to check in at 12 so were able to take the opportunity to use the pool and hot tub for the afternoon which was deserted but well maintained.The room was large, clean and comfortable with good wifi and cable tv.  It is located about 20 minutes drive from Laguna beach which made it a more affordable option but easy to access with a car.  We also explored nearby Huntington Beach and Newport Beach while we were there.  Breakfast was excellent in a very comfortable room off reception with lots of choice and plenty of tables. The Irvine Spectrum Centre is very close by with plenty of big name stores for shopping and also a cinema and a number of eateries. We ate at the nearby Woodies Diner which was excellent and worth a visit.  A tip if you are visiting Laguna Beach, parking is very limited and expensive with parking meters in most streets, there is however a free car park 10 minutes walk from the centre on Canyon Road which saved us some dollars.Overall very comfortable stay in great location just off freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel as we wanted a base for exploring South of LA and we weren't disappointed.  We were allowed to check in at 12 so were able to take the opportunity to use the pool and hot tub for the afternoon which was deserted but well maintained.The room was large, clean and comfortable with good wifi and cable tv.  It is located about 20 minutes drive from Laguna beach which made it a more affordable option but easy to access with a car.  We also explored nearby Huntington Beach and Newport Beach while we were there.  Breakfast was excellent in a very comfortable room off reception with lots of choice and plenty of tables. The Irvine Spectrum Centre is very close by with plenty of big name stores for shopping and also a cinema and a number of eateries. We ate at the nearby Woodies Diner which was excellent and worth a visit.  A tip if you are visiting Laguna Beach, parking is very limited and expensive with parking meters in most streets, there is however a free car park 10 minutes walk from the centre on Canyon Road which saved us some dollars.Overall very comfortable stay in great location just off freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r141869705-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>141869705</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>Personable service, clean, comfortable, Great Time!</t>
+  </si>
+  <si>
+    <t>Very comfortable! We stayed there for a concert we were attending at the Verizon Amptheater and I was very impressed with the comfort and cleanliness. The decor was modern. The staff extremely helpful. I asked for a local cab company and they arranged a shuttle style service that was very cost effective, and comfortable - they had arranged it even prior to me calling the company! The service knew who I was when I called, very personable service both the shuttle and the front desk! The shuttle service was waiting for us when the concert ended, very enjoyable experience!  The king size bed was so very comfortable! Really enjoyed staying here. We missed the breakfast that ended at 9am because we were so cozy sleeping. The only recommendation I would make is to avoid any rooms near the ice maker machine. It seemed like folks were getting ice at all hours of the night and morning and although we were on the floor above, it was loud and annoying, but not enough for me to complain or ruin an otherwise very enjoyable experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Very comfortable! We stayed there for a concert we were attending at the Verizon Amptheater and I was very impressed with the comfort and cleanliness. The decor was modern. The staff extremely helpful. I asked for a local cab company and they arranged a shuttle style service that was very cost effective, and comfortable - they had arranged it even prior to me calling the company! The service knew who I was when I called, very personable service both the shuttle and the front desk! The shuttle service was waiting for us when the concert ended, very enjoyable experience!  The king size bed was so very comfortable! Really enjoyed staying here. We missed the breakfast that ended at 9am because we were so cozy sleeping. The only recommendation I would make is to avoid any rooms near the ice maker machine. It seemed like folks were getting ice at all hours of the night and morning and although we were on the floor above, it was loud and annoying, but not enough for me to complain or ruin an otherwise very enjoyable experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r136846942-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>136846942</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>You get what you expect!!</t>
+  </si>
+  <si>
+    <t>The Comfort Inn of Laguna Hills, CA was a great value for what my wife and I needed it for.  We went to a concert at the Verizon Wireless Amphitheater in Irvine which was approximately 1 mile away in order to network with certain people for a business venture.  The hotel is in a great location central to restaurants, and the venue we were going to in the evening.  The staff was friendly and seemed eager to make our stay pleasant.  The rooms were an 8 out of 10 in cleanliness and the beds were very comfortable.  The pool and hot tub were also well maintained, clean, and at a comfortable temperature.  Its close proximity to the freeway was very convenient and didn't impede on the relaxing atmosphere by the pool.  The furniture by the pool is that of the cheap plastic home depot type furniture but it did its job well and was clean.  I really have no complaints as their wasn't much that was below standard at this hotel.  Though it didn't exceed my expectations it completely met them which is kind of rare these days it would seem.  The price point is slightly higher then I would have liked but I don't feel bad about it since everything went well, I got a good night sleep, and my wife and I had a good time.  Overall I would recommend this hotel for anyone looking for a clean,...The Comfort Inn of Laguna Hills, CA was a great value for what my wife and I needed it for.  We went to a concert at the Verizon Wireless Amphitheater in Irvine which was approximately 1 mile away in order to network with certain people for a business venture.  The hotel is in a great location central to restaurants, and the venue we were going to in the evening.  The staff was friendly and seemed eager to make our stay pleasant.  The rooms were an 8 out of 10 in cleanliness and the beds were very comfortable.  The pool and hot tub were also well maintained, clean, and at a comfortable temperature.  Its close proximity to the freeway was very convenient and didn't impede on the relaxing atmosphere by the pool.  The furniture by the pool is that of the cheap plastic home depot type furniture but it did its job well and was clean.  I really have no complaints as their wasn't much that was below standard at this hotel.  Though it didn't exceed my expectations it completely met them which is kind of rare these days it would seem.  The price point is slightly higher then I would have liked but I don't feel bad about it since everything went well, I got a good night sleep, and my wife and I had a good time.  Overall I would recommend this hotel for anyone looking for a clean, basic, comfortable room to sleep in while conducting business or pleasureful activities in the area for a short time.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>The Comfort Inn of Laguna Hills, CA was a great value for what my wife and I needed it for.  We went to a concert at the Verizon Wireless Amphitheater in Irvine which was approximately 1 mile away in order to network with certain people for a business venture.  The hotel is in a great location central to restaurants, and the venue we were going to in the evening.  The staff was friendly and seemed eager to make our stay pleasant.  The rooms were an 8 out of 10 in cleanliness and the beds were very comfortable.  The pool and hot tub were also well maintained, clean, and at a comfortable temperature.  Its close proximity to the freeway was very convenient and didn't impede on the relaxing atmosphere by the pool.  The furniture by the pool is that of the cheap plastic home depot type furniture but it did its job well and was clean.  I really have no complaints as their wasn't much that was below standard at this hotel.  Though it didn't exceed my expectations it completely met them which is kind of rare these days it would seem.  The price point is slightly higher then I would have liked but I don't feel bad about it since everything went well, I got a good night sleep, and my wife and I had a good time.  Overall I would recommend this hotel for anyone looking for a clean,...The Comfort Inn of Laguna Hills, CA was a great value for what my wife and I needed it for.  We went to a concert at the Verizon Wireless Amphitheater in Irvine which was approximately 1 mile away in order to network with certain people for a business venture.  The hotel is in a great location central to restaurants, and the venue we were going to in the evening.  The staff was friendly and seemed eager to make our stay pleasant.  The rooms were an 8 out of 10 in cleanliness and the beds were very comfortable.  The pool and hot tub were also well maintained, clean, and at a comfortable temperature.  Its close proximity to the freeway was very convenient and didn't impede on the relaxing atmosphere by the pool.  The furniture by the pool is that of the cheap plastic home depot type furniture but it did its job well and was clean.  I really have no complaints as their wasn't much that was below standard at this hotel.  Though it didn't exceed my expectations it completely met them which is kind of rare these days it would seem.  The price point is slightly higher then I would have liked but I don't feel bad about it since everything went well, I got a good night sleep, and my wife and I had a good time.  Overall I would recommend this hotel for anyone looking for a clean, basic, comfortable room to sleep in while conducting business or pleasureful activities in the area for a short time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r125902288-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>125902288</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Dissappointing Stay</t>
+  </si>
+  <si>
+    <t>The hotel staff was friendly but the property is old and showing its age. We stayed there because we were looking for something affordable- but the few dollars we saved wasn't worth it. While the rooms were clean- the overall condition of the hotel needs improvement.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r119060156-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>119060156</t>
+  </si>
+  <si>
+    <t>10/07/2011</t>
+  </si>
+  <si>
+    <t>Terrific!</t>
+  </si>
+  <si>
+    <t>Friendly front desk staff, room was comfortable and super-clean. Looked recently renovated. No odors, no wear or grossness. Free wifi was quick. Fridge and microwave in room along with iron and hair dryer. Would def stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r114589229-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>114589229</t>
+  </si>
+  <si>
+    <t>06/20/2011</t>
+  </si>
+  <si>
+    <t>Whirlpool-A Powerful Experience</t>
+  </si>
+  <si>
+    <t>I travel every couple of weeks to see my fiancée and wanted to be close to John Wayne Airport and be able to head to San Juan Capistrano or Dana Point in a relative short time.The room was big enough and clean and nicely laid-out. I reserved the whirlpool and found it to be roomy and delightful. Mind you, this is not a complaint but turning on the jets shot powerful blasts of water that extinguished all of the carefully lit candles around the whirlpool. Yes, we found the control to turn it down but laughed about the powerful jets the whole evening. The hotel was very convenient to access the freeway, close to the Spectrum, and quiet although very full with guests. Staff was very cordial, breakfast was good, and we had an enjoyable time. I will go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I travel every couple of weeks to see my fiancée and wanted to be close to John Wayne Airport and be able to head to San Juan Capistrano or Dana Point in a relative short time.The room was big enough and clean and nicely laid-out. I reserved the whirlpool and found it to be roomy and delightful. Mind you, this is not a complaint but turning on the jets shot powerful blasts of water that extinguished all of the carefully lit candles around the whirlpool. Yes, we found the control to turn it down but laughed about the powerful jets the whole evening. The hotel was very convenient to access the freeway, close to the Spectrum, and quiet although very full with guests. Staff was very cordial, breakfast was good, and we had an enjoyable time. I will go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r82792327-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>82792327</t>
+  </si>
+  <si>
+    <t>10/09/2010</t>
+  </si>
+  <si>
+    <t>The Most Disgusting Hotel I have ever stayed at!</t>
+  </si>
+  <si>
+    <t>Honestly, The Comfort Inn Laguna Hills was the most disgusting hotel I have ever stayed at!  I should have known when I made the reservation, the girl who answered the phone was so hard to understand, (I really don’t understand why a “Hospitality” business would allow an employee with poor communication skills and most the important of the intelligibility of the employee's pronunciation).
+In spite of this, I made the reservation and showed up to check-in and I was greeted by a women, who must have been having a hectic day because she was short with me and had absolutely no interest in assisting me in anyway.  I asked to speak with her manager, and she stated that her manger was Sarah, and she would be in the following morning at 7:00am.
+When I finally found my room I just wanted to take a long nap before dinner, but that would not happen.  The room smelled like mildew, there were water stains on the ceiling and dark stains on the carpet.  
+I found dirty towels behind the door; I suppose the maid forgot to take them with her after “cleaning” the room.  I phoned the front desk to ask if this was an error or was I given this room by mistake.  All she said was that she would send someone to pick-up the dirty towels.
+The comforter was stained and there were several different human hairs inter-tangled in it....Honestly, The Comfort Inn Laguna Hills was the most disgusting hotel I have ever stayed at!  I should have known when I made the reservation, the girl who answered the phone was so hard to understand, (I really don’t understand why a “Hospitality” business would allow an employee with poor communication skills and most the important of the intelligibility of the employee's pronunciation).In spite of this, I made the reservation and showed up to check-in and I was greeted by a women, who must have been having a hectic day because she was short with me and had absolutely no interest in assisting me in anyway.  I asked to speak with her manager, and she stated that her manger was Sarah, and she would be in the following morning at 7:00am.When I finally found my room I just wanted to take a long nap before dinner, but that would not happen.  The room smelled like mildew, there were water stains on the ceiling and dark stains on the carpet.  I found dirty towels behind the door; I suppose the maid forgot to take them with her after “cleaning” the room.  I phoned the front desk to ask if this was an error or was I given this room by mistake.  All she said was that she would send someone to pick-up the dirty towels.The comforter was stained and there were several different human hairs inter-tangled in it.  When I pulled back the sheets to them check out, I encounter another stain. Totally sickened at this point because I was sure this room had not been cleaned, I called the front desk and asked if I could be moved to a clean room.  I was told that there were no more clean rooms available.After spending the night in this room, I am sure the bed was infested with bed bugs and the walls were paper thin.In the morning I went into the lobby and witnessed one employee disciplining another employee at the front desk in a very condescending manner.  I waited at the front desk for a few seconds for the unprofessional performance to come to an end, and then asked to speak with Sarah.  It was no surprise when I was greeted by the woman with the strong accent, who was scolding the employee, announcing that she was Sarah.   I explained all my concerns and disappointments about the hotel to Sarah and she just had no time for me.Long story short, Sarah was no help at all.  She was impolite and tactless.Bottom line, I will never stay at this hotel again and I would discourage anyone who is considering staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>Honestly, The Comfort Inn Laguna Hills was the most disgusting hotel I have ever stayed at!  I should have known when I made the reservation, the girl who answered the phone was so hard to understand, (I really don’t understand why a “Hospitality” business would allow an employee with poor communication skills and most the important of the intelligibility of the employee's pronunciation).
+In spite of this, I made the reservation and showed up to check-in and I was greeted by a women, who must have been having a hectic day because she was short with me and had absolutely no interest in assisting me in anyway.  I asked to speak with her manager, and she stated that her manger was Sarah, and she would be in the following morning at 7:00am.
+When I finally found my room I just wanted to take a long nap before dinner, but that would not happen.  The room smelled like mildew, there were water stains on the ceiling and dark stains on the carpet.  
+I found dirty towels behind the door; I suppose the maid forgot to take them with her after “cleaning” the room.  I phoned the front desk to ask if this was an error or was I given this room by mistake.  All she said was that she would send someone to pick-up the dirty towels.
+The comforter was stained and there were several different human hairs inter-tangled in it....Honestly, The Comfort Inn Laguna Hills was the most disgusting hotel I have ever stayed at!  I should have known when I made the reservation, the girl who answered the phone was so hard to understand, (I really don’t understand why a “Hospitality” business would allow an employee with poor communication skills and most the important of the intelligibility of the employee's pronunciation).In spite of this, I made the reservation and showed up to check-in and I was greeted by a women, who must have been having a hectic day because she was short with me and had absolutely no interest in assisting me in anyway.  I asked to speak with her manager, and she stated that her manger was Sarah, and she would be in the following morning at 7:00am.When I finally found my room I just wanted to take a long nap before dinner, but that would not happen.  The room smelled like mildew, there were water stains on the ceiling and dark stains on the carpet.  I found dirty towels behind the door; I suppose the maid forgot to take them with her after “cleaning” the room.  I phoned the front desk to ask if this was an error or was I given this room by mistake.  All she said was that she would send someone to pick-up the dirty towels.The comforter was stained and there were several different human hairs inter-tangled in it.  When I pulled back the sheets to them check out, I encounter another stain. Totally sickened at this point because I was sure this room had not been cleaned, I called the front desk and asked if I could be moved to a clean room.  I was told that there were no more clean rooms available.After spending the night in this room, I am sure the bed was infested with bed bugs and the walls were paper thin.In the morning I went into the lobby and witnessed one employee disciplining another employee at the front desk in a very condescending manner.  I waited at the front desk for a few seconds for the unprofessional performance to come to an end, and then asked to speak with Sarah.  It was no surprise when I was greeted by the woman with the strong accent, who was scolding the employee, announcing that she was Sarah.   I explained all my concerns and disappointments about the hotel to Sarah and she just had no time for me.Long story short, Sarah was no help at all.  She was impolite and tactless.Bottom line, I will never stay at this hotel again and I would discourage anyone who is considering staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r65763625-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>65763625</t>
+  </si>
+  <si>
+    <t>05/29/2010</t>
+  </si>
+  <si>
+    <t>Would Not Stay Here Again</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here and it was the worst hotel of our 10-day CA vacation.  The woman at the front desk when we checked in was wonderful and very nice but that was about all that was nice about this place.  The first room they gave us stunk so much of air freshener that even opening the window wouldn't clear out the smell so we changed rooms.  That one had been sprayed also but wasn't as bad so we kept it and aired it out by opening the windows and running the fan.  There was nothing special about the room decor and the pictures on the web looked far nicer than the actual room.  The carpeting had stains on it which gave the room a bad feel.  The towels were thin and we had to ask for more as there were only enough for 1 person.  
+At breakfast the next morning, (we got there around 9 AM and it opened at 6 AM) we were the only ones there and there was hardly any food left.  They had a waffle maker but the batter was in pre-measured cups and was sitting out.  I was afraid to use it because I didn't know how long it had been out and not refrigerated.  Ditto with the milk.  There was no coffee left so I asked the girl at the front desk if she could bring some.  And after waiting awhile,...My husband and I stayed here and it was the worst hotel of our 10-day CA vacation.  The woman at the front desk when we checked in was wonderful and very nice but that was about all that was nice about this place.  The first room they gave us stunk so much of air freshener that even opening the window wouldn't clear out the smell so we changed rooms.  That one had been sprayed also but wasn't as bad so we kept it and aired it out by opening the windows and running the fan.  There was nothing special about the room decor and the pictures on the web looked far nicer than the actual room.  The carpeting had stains on it which gave the room a bad feel.  The towels were thin and we had to ask for more as there were only enough for 1 person.  At breakfast the next morning, (we got there around 9 AM and it opened at 6 AM) we were the only ones there and there was hardly any food left.  They had a waffle maker but the batter was in pre-measured cups and was sitting out.  I was afraid to use it because I didn't know how long it had been out and not refrigerated.  Ditto with the milk.  There was no coffee left so I asked the girl at the front desk if she could bring some.  And after waiting awhile, I went to find her and she was standing there holding the coffee chatting with another woman who worked in the hotel.  I found this unacceptable since she knew I was waiting for it.  When I poured some coffee, it was lukewarm.  This was also the only hotel we stayed at that didn't have a computer in the lobby for guests to use because we wanted to use it to check-in for our flight before we left.This hotel needs an upgrade badly and better customer service.  I would never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here and it was the worst hotel of our 10-day CA vacation.  The woman at the front desk when we checked in was wonderful and very nice but that was about all that was nice about this place.  The first room they gave us stunk so much of air freshener that even opening the window wouldn't clear out the smell so we changed rooms.  That one had been sprayed also but wasn't as bad so we kept it and aired it out by opening the windows and running the fan.  There was nothing special about the room decor and the pictures on the web looked far nicer than the actual room.  The carpeting had stains on it which gave the room a bad feel.  The towels were thin and we had to ask for more as there were only enough for 1 person.  
+At breakfast the next morning, (we got there around 9 AM and it opened at 6 AM) we were the only ones there and there was hardly any food left.  They had a waffle maker but the batter was in pre-measured cups and was sitting out.  I was afraid to use it because I didn't know how long it had been out and not refrigerated.  Ditto with the milk.  There was no coffee left so I asked the girl at the front desk if she could bring some.  And after waiting awhile,...My husband and I stayed here and it was the worst hotel of our 10-day CA vacation.  The woman at the front desk when we checked in was wonderful and very nice but that was about all that was nice about this place.  The first room they gave us stunk so much of air freshener that even opening the window wouldn't clear out the smell so we changed rooms.  That one had been sprayed also but wasn't as bad so we kept it and aired it out by opening the windows and running the fan.  There was nothing special about the room decor and the pictures on the web looked far nicer than the actual room.  The carpeting had stains on it which gave the room a bad feel.  The towels were thin and we had to ask for more as there were only enough for 1 person.  At breakfast the next morning, (we got there around 9 AM and it opened at 6 AM) we were the only ones there and there was hardly any food left.  They had a waffle maker but the batter was in pre-measured cups and was sitting out.  I was afraid to use it because I didn't know how long it had been out and not refrigerated.  Ditto with the milk.  There was no coffee left so I asked the girl at the front desk if she could bring some.  And after waiting awhile, I went to find her and she was standing there holding the coffee chatting with another woman who worked in the hotel.  I found this unacceptable since she knew I was waiting for it.  When I poured some coffee, it was lukewarm.  This was also the only hotel we stayed at that didn't have a computer in the lobby for guests to use because we wanted to use it to check-in for our flight before we left.This hotel needs an upgrade badly and better customer service.  I would never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r58407030-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>58407030</t>
+  </si>
+  <si>
+    <t>03/12/2010</t>
+  </si>
+  <si>
+    <t>Great place, great room, great staff--should be three stars.</t>
+  </si>
+  <si>
+    <t>The front guest staff were always most courteous and always most helpful.  The woman who checked me in made every effort to meet all of my preferences regarding the room and exceeded my expectations.  The room was new (refurbished, i guess) and well decorated (not typical small hotel/motel cheap stuff).  The room was a more than adequate size with everything I requested.  It included both a fridge and a microwave.  Perhaps, best of all, the bathroom was very clean and no mildew in the cracks in the tile or around the bathtub.  Breakfast was typical and adequate.  The grounds are very nice and well kept.  The location is very quiet but convenient to all of central Orange County.  I recommend the Comfort Inn Irvine Spectrum without reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>The front guest staff were always most courteous and always most helpful.  The woman who checked me in made every effort to meet all of my preferences regarding the room and exceeded my expectations.  The room was new (refurbished, i guess) and well decorated (not typical small hotel/motel cheap stuff).  The room was a more than adequate size with everything I requested.  It included both a fridge and a microwave.  Perhaps, best of all, the bathroom was very clean and no mildew in the cracks in the tile or around the bathtub.  Breakfast was typical and adequate.  The grounds are very nice and well kept.  The location is very quiet but convenient to all of central Orange County.  I recommend the Comfort Inn Irvine Spectrum without reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r23354798-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>23354798</t>
+  </si>
+  <si>
+    <t>01/07/2009</t>
+  </si>
+  <si>
+    <t>AVOID this property!</t>
+  </si>
+  <si>
+    <t>I am a Choice Privileges member and have usually always enjoyed my stays at Comfort Inn locations across the country.  Unfortunately, I cannot say that about this property.  I stayed 3 days, mid-week and was extremely disappointed with this property.  
+The room was clean...that was about all I can say to recommend it.  There was a fridge but no microwave-in spite of being assured there was.  Also, no shampoo, conditioner, etc.  When I went down to the front desk to inquire, I was given shampoo only, and was told they didn't have microwaves by an extremely rude clerk.   I had forgotten toothpaste and although they had a sign in the room offering amenities you may have forgotten, I was told they didn't have any (not just toothpaste-no amenities at all).
+In the morning, I went down to breakfast and unlike the usual Comfort Inn deluxe continental breakfast, found no fresh fruit, juice, muffins, bagels, etc.  Also, no USA Today papers.  All of these are standard and are in fact advertised as being offered on the properties own website.  
+When I inquired, I was told the fruit had been "rejected" and all the papers gone-all 3 days of my stay.  I question that as the property was virtually empty.  Additionally-if the fruit delivered is unacceptable, how about running up the street to a grocery store since it is something you advertise as offering?
+While staying there, the TV broke.  They did...I am a Choice Privileges member and have usually always enjoyed my stays at Comfort Inn locations across the country.  Unfortunately, I cannot say that about this property.  I stayed 3 days, mid-week and was extremely disappointed with this property.  The room was clean...that was about all I can say to recommend it.  There was a fridge but no microwave-in spite of being assured there was.  Also, no shampoo, conditioner, etc.  When I went down to the front desk to inquire, I was given shampoo only, and was told they didn't have microwaves by an extremely rude clerk.   I had forgotten toothpaste and although they had a sign in the room offering amenities you may have forgotten, I was told they didn't have any (not just toothpaste-no amenities at all).In the morning, I went down to breakfast and unlike the usual Comfort Inn deluxe continental breakfast, found no fresh fruit, juice, muffins, bagels, etc.  Also, no USA Today papers.  All of these are standard and are in fact advertised as being offered on the properties own website.  When I inquired, I was told the fruit had been "rejected" and all the papers gone-all 3 days of my stay.  I question that as the property was virtually empty.  Additionally-if the fruit delivered is unacceptable, how about running up the street to a grocery store since it is something you advertise as offering?While staying there, the TV broke.  They did replace it quickly, but with a TV that had no sound.The spa was filthy and I was disappointed that it stayed that way all 3 days.I would absolutely NOT recommend this property and suggest you try *anywhere* else.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>CA448, Front Office Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded May 18, 2009</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2009</t>
+  </si>
+  <si>
+    <t>I am a Choice Privileges member and have usually always enjoyed my stays at Comfort Inn locations across the country.  Unfortunately, I cannot say that about this property.  I stayed 3 days, mid-week and was extremely disappointed with this property.  
+The room was clean...that was about all I can say to recommend it.  There was a fridge but no microwave-in spite of being assured there was.  Also, no shampoo, conditioner, etc.  When I went down to the front desk to inquire, I was given shampoo only, and was told they didn't have microwaves by an extremely rude clerk.   I had forgotten toothpaste and although they had a sign in the room offering amenities you may have forgotten, I was told they didn't have any (not just toothpaste-no amenities at all).
+In the morning, I went down to breakfast and unlike the usual Comfort Inn deluxe continental breakfast, found no fresh fruit, juice, muffins, bagels, etc.  Also, no USA Today papers.  All of these are standard and are in fact advertised as being offered on the properties own website.  
+When I inquired, I was told the fruit had been "rejected" and all the papers gone-all 3 days of my stay.  I question that as the property was virtually empty.  Additionally-if the fruit delivered is unacceptable, how about running up the street to a grocery store since it is something you advertise as offering?
+While staying there, the TV broke.  They did...I am a Choice Privileges member and have usually always enjoyed my stays at Comfort Inn locations across the country.  Unfortunately, I cannot say that about this property.  I stayed 3 days, mid-week and was extremely disappointed with this property.  The room was clean...that was about all I can say to recommend it.  There was a fridge but no microwave-in spite of being assured there was.  Also, no shampoo, conditioner, etc.  When I went down to the front desk to inquire, I was given shampoo only, and was told they didn't have microwaves by an extremely rude clerk.   I had forgotten toothpaste and although they had a sign in the room offering amenities you may have forgotten, I was told they didn't have any (not just toothpaste-no amenities at all).In the morning, I went down to breakfast and unlike the usual Comfort Inn deluxe continental breakfast, found no fresh fruit, juice, muffins, bagels, etc.  Also, no USA Today papers.  All of these are standard and are in fact advertised as being offered on the properties own website.  When I inquired, I was told the fruit had been "rejected" and all the papers gone-all 3 days of my stay.  I question that as the property was virtually empty.  Additionally-if the fruit delivered is unacceptable, how about running up the street to a grocery store since it is something you advertise as offering?While staying there, the TV broke.  They did replace it quickly, but with a TV that had no sound.The spa was filthy and I was disappointed that it stayed that way all 3 days.I would absolutely NOT recommend this property and suggest you try *anywhere* else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r18733349-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>18733349</t>
+  </si>
+  <si>
+    <t>08/07/2008</t>
+  </si>
+  <si>
+    <t>Not bad at all</t>
+  </si>
+  <si>
+    <t>I was looking for a place to stay in the area.  Some of the reviews scared me a bit, but other nearby hotels I was considering had even more terrible reviews, so I ended up choosing this one.  I think remodeling is done.  The bathroom looks all new, a new tub and granite shower walls.  My room was pretty spacious.  No 5 star hotel, but I was pretty happy with the hotel.  There are so many places to eat in 5 min drive.  Very convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>CA448, Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded May 18, 2009</t>
+  </si>
+  <si>
+    <t>I was looking for a place to stay in the area.  Some of the reviews scared me a bit, but other nearby hotels I was considering had even more terrible reviews, so I ended up choosing this one.  I think remodeling is done.  The bathroom looks all new, a new tub and granite shower walls.  My room was pretty spacious.  No 5 star hotel, but I was pretty happy with the hotel.  There are so many places to eat in 5 min drive.  Very convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r12101113-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>12101113</t>
+  </si>
+  <si>
+    <t>12/30/2007</t>
+  </si>
+  <si>
+    <t>Worst Hotel Stay I Have Ever Had!</t>
+  </si>
+  <si>
+    <t>My stay at the Comfort Inn Irvine was the worst hotel stay I have ever had.  I arrived at the hotel at the correct check in time, but was told the room would not be ready for an hour.  Two hours later, we were allowed to check in.  The bathroom was filthy.  I could tell that somebody had used the restroom between the time it was cleaned and the time we checked in.  The bathroom was falling apart.  The air conditioner was also noisy.  There were construction workers repairing the hotel right outside of our room.  They began work before 8AM and were very noisy.I sent a detailed complaint to corporate Comfort Inn and received no response, although they decided to add me to their advertising mailing list.MoreShow less</t>
+  </si>
+  <si>
+    <t>CA448, Front Office Manager at Comfort Inn at Irvine Spectrum, responded to this reviewResponded January 7, 2009</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2009</t>
+  </si>
+  <si>
+    <t>My stay at the Comfort Inn Irvine was the worst hotel stay I have ever had.  I arrived at the hotel at the correct check in time, but was told the room would not be ready for an hour.  Two hours later, we were allowed to check in.  The bathroom was filthy.  I could tell that somebody had used the restroom between the time it was cleaned and the time we checked in.  The bathroom was falling apart.  The air conditioner was also noisy.  There were construction workers repairing the hotel right outside of our room.  They began work before 8AM and were very noisy.I sent a detailed complaint to corporate Comfort Inn and received no response, although they decided to add me to their advertising mailing list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r5496435-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>5496435</t>
+  </si>
+  <si>
+    <t>07/21/2006</t>
+  </si>
+  <si>
+    <t>Outdated - disappointing</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights - on business.  Many from my company also stayed here.  The motel - it is a motel - is in the process of updating some of the rooms - v e r y  s l o w l y -.  I did not have an updated room.  There is no closet - you hang your clothes by the sink.  Over the tub was a light fixture with an oversized florescent or halogen light hanging out the botton.  Nothing about the room is appealing to the eye or to your comfort.  When I arrived the tv didn't work, but it was fixed right away.  Later, the toilet stopped flushing and overflowed (thankfully I was on the ground level and the floor had a drain near the toilet ) - but it was also fixed right away.  There is nothing a tourist would enjoy close to the motel - such as shops, restaurants (other than a Carl's Jr and a Coco's) so you need to have a car.  The so-called breakfast was A W F U L!   It has been a long time since I've seen such an unpleasant assortment of food.  Yuck.  We would have moved to another hotel if we could have found one in the area that had a room available.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights - on business.  Many from my company also stayed here.  The motel - it is a motel - is in the process of updating some of the rooms - v e r y  s l o w l y -.  I did not have an updated room.  There is no closet - you hang your clothes by the sink.  Over the tub was a light fixture with an oversized florescent or halogen light hanging out the botton.  Nothing about the room is appealing to the eye or to your comfort.  When I arrived the tv didn't work, but it was fixed right away.  Later, the toilet stopped flushing and overflowed (thankfully I was on the ground level and the floor had a drain near the toilet ) - but it was also fixed right away.  There is nothing a tourist would enjoy close to the motel - such as shops, restaurants (other than a Carl's Jr and a Coco's) so you need to have a car.  The so-called breakfast was A W F U L!   It has been a long time since I've seen such an unpleasant assortment of food.  Yuck.  We would have moved to another hotel if we could have found one in the area that had a room available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r4984050-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>4984050</t>
+  </si>
+  <si>
+    <t>04/17/2006</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Ive been visiting the area for the past five years and always stay at this place. My daughter is moving and I wanted to thank the staff for being so nice to me all the time I visit.  The rooms need a little work, but the service makes up for it.  They all know me by first name because I visit three times a year.   I will miss my friends here and I am sure you will make new ones.  Thank you so much!! best carolMoreShow less</t>
+  </si>
+  <si>
+    <t>Ive been visiting the area for the past five years and always stay at this place. My daughter is moving and I wanted to thank the staff for being so nice to me all the time I visit.  The rooms need a little work, but the service makes up for it.  They all know me by first name because I visit three times a year.   I will miss my friends here and I am sure you will make new ones.  Thank you so much!! best carolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r3909530-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>3909530</t>
+  </si>
+  <si>
+    <t>09/15/2005</t>
+  </si>
+  <si>
+    <t>Good quality</t>
+  </si>
+  <si>
+    <t>Our office are around the corner from the Comfort.  We have put people here for over a year and they seem know what they are doing.  There rates are reasonable and the service is good.  Last we hosted someone from China where he did not speak fluent english.  The Comfort Inn had a staff member speak Manderine which made his staff enjoyable plus helped us out when we needed to translate some items.  I have thanked them for assisting us and going above what they should do.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2005</t>
+  </si>
+  <si>
+    <t>Our office are around the corner from the Comfort.  We have put people here for over a year and they seem know what they are doing.  There rates are reasonable and the service is good.  Last we hosted someone from China where he did not speak fluent english.  The Comfort Inn had a staff member speak Manderine which made his staff enjoyable plus helped us out when we needed to translate some items.  I have thanked them for assisting us and going above what they should do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r3599370-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>3599370</t>
+  </si>
+  <si>
+    <t>06/21/2005</t>
+  </si>
+  <si>
+    <t>The reviews are good to follow</t>
+  </si>
+  <si>
+    <t>Stayed here based on the reviews, the staff was friendly and personable. The hotel was replacing its spa heater the day we arrived and could not use it for the day, but the next day we did!  Check out the SNOOTY FOX restaurant next door; they have a great breakfast at less than $5 per person.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here based on the reviews, the staff was friendly and personable. The hotel was replacing its spa heater the day we arrived and could not use it for the day, but the next day we did!  Check out the SNOOTY FOX restaurant next door; they have a great breakfast at less than $5 per person.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r3250063-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>3250063</t>
+  </si>
+  <si>
+    <t>03/02/2005</t>
+  </si>
+  <si>
+    <t>Good basic motel</t>
+  </si>
+  <si>
+    <t>About what you'd expect from a Comfort Inn. Better than a few Comfort Inns I have stayed at and a step down from a few others. It's a mid-level lodging chain.
+The continential breakfast was sparse (pasteries, apples, apple juice, "orange drink," milk, muffins coffee). And why does EVERY Comfort Inn serve some sort of "Tang" as orange juice?
+The staff was nice. The maids were nice and over my multi-day stay, they mostly got the daily clean-up right. Quiet, of course the place was mostly deserted during my stay. Rooms were fine, but they are old and while they have been renovated, you can still tell they have some miles, but perfectly comfortable and nice size, nonetheless.
+Fast food is nearby, as is Interstate 5, but there is no small grocery or market (or large grocery for that matter) within reasonable walking distance.
+Also, I was charged $1.50 per day for the in-room safe warranty, which was not disclosed before I checked in the hotel, nor when I checked out.
+ Nor did I even use the safe (you have to check out a safe "key" from   the front desk to use the inroom safe).
+I have had this "done" to me before at other hotels and usually a complaint gets it taken off the bill. However, the clerk had already posted the bill and ran the credit card before showing me the charges, which I suppose was my fault...About what you'd expect from a Comfort Inn. Better than a few Comfort Inns I have stayed at and a step down from a few others. It's a mid-level lodging chain.The continential breakfast was sparse (pasteries, apples, apple juice, "orange drink," milk, muffins coffee). And why does EVERY Comfort Inn serve some sort of "Tang" as orange juice?The staff was nice. The maids were nice and over my multi-day stay, they mostly got the daily clean-up right. Quiet, of course the place was mostly deserted during my stay. Rooms were fine, but they are old and while they have been renovated, you can still tell they have some miles, but perfectly comfortable and nice size, nonetheless.Fast food is nearby, as is Interstate 5, but there is no small grocery or market (or large grocery for that matter) within reasonable walking distance.Also, I was charged $1.50 per day for the in-room safe warranty, which was not disclosed before I checked in the hotel, nor when I checked out. Nor did I even use the safe (you have to check out a safe "key" from   the front desk to use the inroom safe).I have had this "done" to me before at other hotels and usually a complaint gets it taken off the bill. However, the clerk had already posted the bill and ran the credit card before showing me the charges, which I suppose was my fault for not insisting on seeing it beforehand. It was less than $5, so I just put up with it, but in principle, I felt that it was bad practice.Other than that, would not hesistate to stay again. I'd just make sure I did not get the "safe warranty" next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2005</t>
+  </si>
+  <si>
+    <t>About what you'd expect from a Comfort Inn. Better than a few Comfort Inns I have stayed at and a step down from a few others. It's a mid-level lodging chain.
+The continential breakfast was sparse (pasteries, apples, apple juice, "orange drink," milk, muffins coffee). And why does EVERY Comfort Inn serve some sort of "Tang" as orange juice?
+The staff was nice. The maids were nice and over my multi-day stay, they mostly got the daily clean-up right. Quiet, of course the place was mostly deserted during my stay. Rooms were fine, but they are old and while they have been renovated, you can still tell they have some miles, but perfectly comfortable and nice size, nonetheless.
+Fast food is nearby, as is Interstate 5, but there is no small grocery or market (or large grocery for that matter) within reasonable walking distance.
+Also, I was charged $1.50 per day for the in-room safe warranty, which was not disclosed before I checked in the hotel, nor when I checked out.
+ Nor did I even use the safe (you have to check out a safe "key" from   the front desk to use the inroom safe).
+I have had this "done" to me before at other hotels and usually a complaint gets it taken off the bill. However, the clerk had already posted the bill and ran the credit card before showing me the charges, which I suppose was my fault...About what you'd expect from a Comfort Inn. Better than a few Comfort Inns I have stayed at and a step down from a few others. It's a mid-level lodging chain.The continential breakfast was sparse (pasteries, apples, apple juice, "orange drink," milk, muffins coffee). And why does EVERY Comfort Inn serve some sort of "Tang" as orange juice?The staff was nice. The maids were nice and over my multi-day stay, they mostly got the daily clean-up right. Quiet, of course the place was mostly deserted during my stay. Rooms were fine, but they are old and while they have been renovated, you can still tell they have some miles, but perfectly comfortable and nice size, nonetheless.Fast food is nearby, as is Interstate 5, but there is no small grocery or market (or large grocery for that matter) within reasonable walking distance.Also, I was charged $1.50 per day for the in-room safe warranty, which was not disclosed before I checked in the hotel, nor when I checked out. Nor did I even use the safe (you have to check out a safe "key" from   the front desk to use the inroom safe).I have had this "done" to me before at other hotels and usually a complaint gets it taken off the bill. However, the clerk had already posted the bill and ran the credit card before showing me the charges, which I suppose was my fault for not insisting on seeing it beforehand. It was less than $5, so I just put up with it, but in principle, I felt that it was bad practice.Other than that, would not hesistate to stay again. I'd just make sure I did not get the "safe warranty" next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r1758734-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>1758734</t>
+  </si>
+  <si>
+    <t>03/31/2004</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>We used a travel site to book this hotel and were happy with our stay. The location is excellent only ten minutes from the beach and a few minutes from the mall. The inn was in quite neighborhood that was the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>We used a travel site to book this hotel and were happy with our stay. The location is excellent only ten minutes from the beach and a few minutes from the mall. The inn was in quite neighborhood that was the best.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2001,4043 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>126</v>
+      </c>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>163</v>
+      </c>
+      <c r="X20" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>163</v>
+      </c>
+      <c r="X21" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>178</v>
+      </c>
+      <c r="X22" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>178</v>
+      </c>
+      <c r="X23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>178</v>
+      </c>
+      <c r="X24" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>200</v>
+      </c>
+      <c r="X25" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>209</v>
+      </c>
+      <c r="X26" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>193</v>
+      </c>
+      <c r="O27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>217</v>
+      </c>
+      <c r="X27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>225</v>
+      </c>
+      <c r="X28" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>233</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>234</v>
+      </c>
+      <c r="X29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>242</v>
+      </c>
+      <c r="X30" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>233</v>
+      </c>
+      <c r="O31" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>250</v>
+      </c>
+      <c r="X32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>250</v>
+      </c>
+      <c r="X33" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>271</v>
+      </c>
+      <c r="O34" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>250</v>
+      </c>
+      <c r="X34" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>278</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>250</v>
+      </c>
+      <c r="X35" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>281</v>
+      </c>
+      <c r="J36" t="s">
+        <v>282</v>
+      </c>
+      <c r="K36" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s">
+        <v>284</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O36" t="s">
+        <v>98</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>250</v>
+      </c>
+      <c r="X36" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>285</v>
+      </c>
+      <c r="O37" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>250</v>
+      </c>
+      <c r="X37" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s">
+        <v>106</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>250</v>
+      </c>
+      <c r="X38" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>301</v>
+      </c>
+      <c r="J39" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" t="s">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s">
+        <v>304</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>250</v>
+      </c>
+      <c r="X39" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>311</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>250</v>
+      </c>
+      <c r="X40" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>314</v>
+      </c>
+      <c r="J41" t="s">
+        <v>315</v>
+      </c>
+      <c r="K41" t="s">
+        <v>316</v>
+      </c>
+      <c r="L41" t="s">
+        <v>317</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>318</v>
+      </c>
+      <c r="O41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>319</v>
+      </c>
+      <c r="X41" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>322</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>323</v>
+      </c>
+      <c r="J42" t="s">
+        <v>324</v>
+      </c>
+      <c r="K42" t="s">
+        <v>325</v>
+      </c>
+      <c r="L42" t="s">
+        <v>326</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>327</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>328</v>
+      </c>
+      <c r="X42" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>331</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>332</v>
+      </c>
+      <c r="J43" t="s">
+        <v>333</v>
+      </c>
+      <c r="K43" t="s">
+        <v>334</v>
+      </c>
+      <c r="L43" t="s">
+        <v>335</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>336</v>
+      </c>
+      <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>337</v>
+      </c>
+      <c r="X43" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" t="s">
+        <v>343</v>
+      </c>
+      <c r="L44" t="s">
+        <v>344</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>345</v>
+      </c>
+      <c r="O44" t="s">
+        <v>98</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>337</v>
+      </c>
+      <c r="X44" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>347</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>348</v>
+      </c>
+      <c r="J45" t="s">
+        <v>349</v>
+      </c>
+      <c r="K45" t="s">
+        <v>350</v>
+      </c>
+      <c r="L45" t="s">
+        <v>351</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>352</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>337</v>
+      </c>
+      <c r="X45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>354</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>355</v>
+      </c>
+      <c r="J46" t="s">
+        <v>356</v>
+      </c>
+      <c r="K46" t="s">
+        <v>357</v>
+      </c>
+      <c r="L46" t="s">
+        <v>358</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>359</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>337</v>
+      </c>
+      <c r="X46" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>361</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>362</v>
+      </c>
+      <c r="J47" t="s">
+        <v>363</v>
+      </c>
+      <c r="K47" t="s">
+        <v>364</v>
+      </c>
+      <c r="L47" t="s">
+        <v>365</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>366</v>
+      </c>
+      <c r="O47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>337</v>
+      </c>
+      <c r="X47" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>369</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+      <c r="K48" t="s">
+        <v>371</v>
+      </c>
+      <c r="L48" t="s">
+        <v>372</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>373</v>
+      </c>
+      <c r="O48" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>337</v>
+      </c>
+      <c r="X48" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>376</v>
+      </c>
+      <c r="J49" t="s">
+        <v>377</v>
+      </c>
+      <c r="K49" t="s">
+        <v>378</v>
+      </c>
+      <c r="L49" t="s">
+        <v>379</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>380</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>337</v>
+      </c>
+      <c r="X49" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>382</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>383</v>
+      </c>
+      <c r="J50" t="s">
+        <v>384</v>
+      </c>
+      <c r="K50" t="s">
+        <v>385</v>
+      </c>
+      <c r="L50" t="s">
+        <v>386</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>387</v>
+      </c>
+      <c r="O50" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>388</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>389</v>
+      </c>
+      <c r="J51" t="s">
+        <v>390</v>
+      </c>
+      <c r="K51" t="s">
+        <v>391</v>
+      </c>
+      <c r="L51" t="s">
+        <v>392</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>393</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>394</v>
+      </c>
+      <c r="J52" t="s">
+        <v>395</v>
+      </c>
+      <c r="K52" t="s">
+        <v>396</v>
+      </c>
+      <c r="L52" t="s">
+        <v>397</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>398</v>
+      </c>
+      <c r="O52" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>400</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>401</v>
+      </c>
+      <c r="J53" t="s">
+        <v>402</v>
+      </c>
+      <c r="K53" t="s">
+        <v>403</v>
+      </c>
+      <c r="L53" t="s">
+        <v>404</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>405</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>407</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>408</v>
+      </c>
+      <c r="J54" t="s">
+        <v>409</v>
+      </c>
+      <c r="K54" t="s">
+        <v>410</v>
+      </c>
+      <c r="L54" t="s">
+        <v>411</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>412</v>
+      </c>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>414</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" t="s">
+        <v>417</v>
+      </c>
+      <c r="L55" t="s">
+        <v>418</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>419</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>421</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>422</v>
+      </c>
+      <c r="J56" t="s">
+        <v>423</v>
+      </c>
+      <c r="K56" t="s">
+        <v>424</v>
+      </c>
+      <c r="L56" t="s">
+        <v>425</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>426</v>
+      </c>
+      <c r="O56" t="s">
+        <v>106</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>427</v>
+      </c>
+      <c r="X56" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>431</v>
+      </c>
+      <c r="J57" t="s">
+        <v>432</v>
+      </c>
+      <c r="K57" t="s">
+        <v>433</v>
+      </c>
+      <c r="L57" t="s">
+        <v>434</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>435</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>436</v>
+      </c>
+      <c r="X57" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>438</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>439</v>
+      </c>
+      <c r="J58" t="s">
+        <v>440</v>
+      </c>
+      <c r="K58" t="s">
+        <v>441</v>
+      </c>
+      <c r="L58" t="s">
+        <v>442</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>443</v>
+      </c>
+      <c r="X58" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>446</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>447</v>
+      </c>
+      <c r="J59" t="s">
+        <v>448</v>
+      </c>
+      <c r="K59" t="s">
+        <v>449</v>
+      </c>
+      <c r="L59" t="s">
+        <v>450</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>451</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>443</v>
+      </c>
+      <c r="X59" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>453</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>454</v>
+      </c>
+      <c r="J60" t="s">
+        <v>455</v>
+      </c>
+      <c r="K60" t="s">
+        <v>456</v>
+      </c>
+      <c r="L60" t="s">
+        <v>457</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>443</v>
+      </c>
+      <c r="X60" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>459</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>460</v>
+      </c>
+      <c r="J61" t="s">
+        <v>461</v>
+      </c>
+      <c r="K61" t="s">
+        <v>462</v>
+      </c>
+      <c r="L61" t="s">
+        <v>463</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>464</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>427</v>
+      </c>
+      <c r="X61" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>466</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>467</v>
+      </c>
+      <c r="J62" t="s">
+        <v>468</v>
+      </c>
+      <c r="K62" t="s">
+        <v>469</v>
+      </c>
+      <c r="L62" t="s">
+        <v>470</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>427</v>
+      </c>
+      <c r="X62" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>473</v>
+      </c>
+      <c r="J63" t="s">
+        <v>474</v>
+      </c>
+      <c r="K63" t="s">
+        <v>475</v>
+      </c>
+      <c r="L63" t="s">
+        <v>476</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>477</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>427</v>
+      </c>
+      <c r="X63" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>20395</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>479</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>480</v>
+      </c>
+      <c r="J64" t="s">
+        <v>481</v>
+      </c>
+      <c r="K64" t="s">
+        <v>482</v>
+      </c>
+      <c r="L64" t="s">
+        <v>483</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>427</v>
+      </c>
+      <c r="X64" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>484</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_124.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_124.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>runner1726</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>GypsyFrank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r534962310-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>I am here on business. Arrived in room 309, and turned on my computer. No Wi-Fi. Went to the front desk to make my complaint, and another person also had the same issue.The front desk employee, Ish (name of person at front desk), was arrogant and offered no resolution to our problem. He said no complaints over Wi-Fi connection today or ever. I can call somebody on Monday. Hey we are here on Saturday not Mondy. I saw a signal to room 309, but the signal was so weak that my laptop could not connect. I was able to connect in this small lobby of the hotel. No Business Center here. Went back to room, Hotel has put the burden on me for Wi-Fi. Called the Oviss Wi-Fi company. They have a number to call in the room. No help. They will never return your call. Wi-Fi is terrible. If you are on a business trip forget about this hotel and look elsewhere. Save your money and time. If you decide to stay at this hotel make sure you get a room closer to the office because the Wi-Fi is a disaster. Zero support. No Free Wi-Fi in room as advertised.More</t>
   </si>
   <si>
+    <t>clo2020</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r532113418-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>1) Just when i got into the room I layed over the bed to watch some tv, and saw long hairs to both of my sides.  I panicked but tried to calm myself thinking those could be mine, but I saw too many, so I uncovered the bed to see the bed sheets and there where even more hairs in the bedsheets, obviously those were not mine.  2) Already in panic attack, I could not believe there was a stain in the bedsheets, it look sticky.3) I survived the night by changing to the other bed, which was clean (the difference of beds was day and night).  However in the morning I was in the restroom and saw below the door knob a stain as big 2 quarters, it was kind of red/brown, at that point I really could not know what else to expect It was a horrible experience, don't know what else to say, I would be embarrased to offer that kind of service really, on my side, I was very angry that the room was that nasty.More</t>
   </si>
   <si>
+    <t>Nancy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r510297523-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Donald C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r507252784-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r472534823-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Carson O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r465953262-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Gail F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r462315273-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>We checked in at the Comfort Inn at Irvine Spectrum in the evening on February 11, 2017.When opening the door we saw that the room had not been cleaned or made up. The person at the desk apologized and assigned us a different room. We could not take a shower in the morning since we could not get the water to turn on. The shower knob was stuck. The sink drain plug was also stuck shut.I may as well mention that the toilet seat was shifted to one side. The sheets were very thin and worn. People talking outside woke us up three times during the hours of 1:00 am to 5:00 am so we did not get a good nights sleep. We decided to  just check out and get on the road.  I would not recommend staying at the Comfort Inn at this location. This was our first bad experience with a Comfort Inn.More</t>
   </si>
   <si>
+    <t>Ricci S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r454076636-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Kay L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r435224448-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Toni J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r423336840-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>So I stayed her for two nights and when I left I went to the lobby to get my deposit.I waited a long time in the lobby for the for the lady to check my room to make sure that I can get my deposit back for incidentals. When she got back she said I would not be getting back my $70 cash deposit which by the way who pay $70 for a deposit. She said that I had put it old bloodstain on there that I had to pay for the towel. There was a towel that had what she called dry blood that look like a Mud that was on there from 1927.so she said I had to pay for that towel as well when I asked her how much I had to pay she said it was $25 each towels and gave me back $20. I feel like she pocketed The money. Also may i add when it came time to check out she barged into my room while I was naked to tell me that it was checkout time. I have never before in my life experience anything like this that I will never go back there again!More</t>
   </si>
   <si>
+    <t>Sandra G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r418576389-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Vonny911</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r399341833-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>Wow! I was thinking this was going to be like a Hampton Inn or Best Western but far from it. The feeling I got here was that of a motel 6 . Seriously a Shortage of towels,Jaquzzi needs repair to be safe to get in it, stained carpeting, Smelled like a cigarette in the room , Air barely worked, and actually We first entered the room the air was off and took half the night to finally cool enough to sleep. My family all took cold showers just to bare the temp in the room. Would have left the reservation if I hadn't booked threw booking.Com, in which the booking site said "Free cancellation" and as soon as I booked and the email came back with a "no cancellation policy", having booked a three night stay I was not going to leave the reservation, so there's the two star review for a two star hotel .More</t>
   </si>
   <si>
+    <t>LMichael2456</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r399225615-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -432,6 +474,9 @@
     <t>I am sitting in the hotel lobby right now after learning they have double booked my room and sounds to be a regular practice. We PREPAID $804.60 for three King Size Beds.  Come to find out, when your showing up mid-day, they double book your room (that you've already PAID for in Full) and when you show up, you're screwed. We travel 250 nights a year and when you pay for a room, ahead of time, that is your contract that holds that room.  This appears to be a standard practice for them to double their revenue.  We are being told now that they only have a queen and doubles, that we would have to settle for.  I have asked them to get us what we have paid for either here or somewhere else, and they don't seem very receptive to helping and quite embarrassed that someone has discovered their business practice. Very upset right now as we are tired and feel like we are being stolen from. More</t>
   </si>
   <si>
+    <t>marilley2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r399150312-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -444,6 +489,9 @@
     <t>The Irvine Spectrum Inn has a full service breakfast with delicious granola, walnut pieces, raisins, bananas and fresh fruit! I found the lemon water in the lobby wonderfully refreshing. Of course, the fridge, variety of pillows and good mattress make for a relaxing sleep. This inn is located in a quiet neighborhood with a pleasant atmosphere. Highly recommended!!!</t>
   </si>
   <si>
+    <t>Gluv619</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r392382953-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -459,6 +507,9 @@
     <t xml:space="preserve">So using Priceline name your own price I was a little nervous when booked at a comfort inn again after my horrible experience I had at the San Diego comfort suites in MiraMesa but to my surprise the staff was nothing but nice and we're extremely accommodating by giving me an early check-in at no extra fee .. I might add the breakfast is pretty good for how cheep the room was thanks for the great stay </t>
   </si>
   <si>
+    <t>jean k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r392365456-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -471,6 +522,9 @@
     <t xml:space="preserve">Stopped here late Sunday night, room price more than we like to pay, but was comparable to other nearby hotels. Room was nonsmoking and smelled just fine. King bed very comfortable, nothing lacking. Shower temp was very good, tv/internet worked just fine. It's actually in a nice area with food choices right next door. Easy access to 405 and 5 freeways. Did not try their breakfast but are breakfast next door at Coco's instead. Parking for trailer or large truck is very limited. </t>
   </si>
   <si>
+    <t>benzed1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r389477925-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -489,6 +543,9 @@
     <t>All we were looking for was a clean place to sleep that offered wifi. Didn't need ANYTHING else. So, the bed was OK, pillows, were ripe with the smell of fabreeze, and the room had the smell of stale smoke. Tried getting on the WiFi...the code wouldn't take. Tried my laptop, my wife laptop, my iPad and my wife's iPad. nothing. Called the front desk to make sure we had the right code. We did. He replied that we are the first one's ever to not be able to get on WiFi and for us to call the provider. So, no wifi...what to do now? well, lets watch some TV...great, no TV signal on majority of the channels, and to check with the front desk. Tried calling the front desk. no one answered. waited 10 minutes. called again. explained the issue. his response was "yeah, that happens". you just have to wait. next morning, the fresh continental breakfast was basically stale pastries and instant coffee At checkout, unable to get a receipt, as I have to go online or wherever i booked the room for a receipt. Horrendous and shame on the owners for having a crappy staff.More</t>
   </si>
   <si>
+    <t>Nat1950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r373203428-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -516,6 +573,9 @@
     <t>Very nice hotel, room looked like it was almost new inside.  All the amenities, only one block off the main east-west boulevard, lots of restaurants of all kinds nearby.  Room and bath very clean.  Towels, linens, and bedding looked almost new.  Would stay here again for sure.  Great value and location just off I-5.More</t>
   </si>
   <si>
+    <t>Acefalo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r370726237-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -534,6 +594,9 @@
     <t>We just needed a bed to sleep in and the comfort inn was great. We arrived at 3 am and left at 7 am. Room was clean, updated although no frills but none needed. Was super noisy early in the morning. Staff was friendly and had a small continental breakfast. More</t>
   </si>
   <si>
+    <t>brimil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r354898100-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -561,6 +624,9 @@
     <t>If your looking for a clean place with a decent bed, this is it. Walking distance to food, shopping etc. Exterior is rough, the pool not so nice. When there the lots of loud people. All in all it was an OK place for a night or two. As a guy who spends 100+ nights a year in hotels, the place is a 3 all around. More</t>
   </si>
   <si>
+    <t>rleland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r321728148-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -582,6 +648,9 @@
     <t>The room was very clean. Bathroom toilet had a broken seat. Plenty of bath towels, but not the thickest. Hotel toiletries sparse, only soap and lotion, no shampoo or conditioner. Shower nice with good hot water pressure. Tall guests will like the high shower-head. The bed was nice for a good night's sleep. Nice comfortable pillows and clean fresh bedding. Room a/c so-so, varying room temps. Nice little balcony. Room has microwave and nicely sized refrigerator. Nice flatscreen TV with plenty of channels. The outside area of the hotel is really tired and need of serious repair. This hotel seems to be run with minimal budget. They store boat(s) and other recreational toys in the parking lot which detracts from the business. The check-in attendant is friendly, but she shouldn't be broadcasting room numbers out loud with other guests present. They serve breakfast, but you have to get up early, service 6am-9am. The pool looked clean, but the spa looked cloudy and of need of serious cleaning. This was an adequate Comfort Inn stay, but they really need to put some funds into the facility grounds and buildings or hire new grounds and/or maintenance staff. More</t>
   </si>
   <si>
+    <t>Marsh R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r313479549-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -603,6 +672,9 @@
     <t>I have being staying at this Comfort Inn for the past 2 1/2 years every week. I wanted to thank the manager Kevin and his staff ( Jemma, Ed, Sara, and Ben ) for their excellent customer service. They always have a smile on their faces and take care of any needs I may have. The rooms are always ready and very clean. The breakfast is always hot and on time when I get off of work at 6am. The area has a few places to eat like Carl's Jr which is just across the street. Another place is Baja Fish Tacos just around the corner in the strip mall.  The Comfort Inn is quite during the day when I sleep which is really important for me. I would recommend staying here. Thanks again for all you do for me. Marshall R.More</t>
   </si>
   <si>
+    <t>Cheri B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r312537718-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -627,6 +699,9 @@
     <t>Great stay. Last minute reservation and was treated with great service. Will stop again when we travel south again.  We always try to stay only with Comfort inns. Being able to have breakfast before leaving is always a plus. Thanks for a great stay!     More</t>
   </si>
   <si>
+    <t>Robert B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r308563288-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -654,6 +729,9 @@
     <t>We had a wonderful overnight at the Inn and the person at the front desk was so helpful and friendly. Great sleep and breakfast the next morning. Very pretty location and very clean! It was great! Thank you!More</t>
   </si>
   <si>
+    <t>Stephanie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r307982942-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -678,6 +756,9 @@
     <t>This was a really nice location for a soccer tournament. Why battle traffic back to San Diego....Close to freeway, exactly what we expected, clean, comfortable, friendly service, breakfast was fine.... It is/was, as we hoped....Don't hesitate on a short term hotel.   More</t>
   </si>
   <si>
+    <t>TaylorRose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r307625912-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -702,6 +783,9 @@
     <t>This is our first stay here at the Comfort Inn, visiting family in the area (normally stay further down the street). We had a very good stay, the room was quiet even though the hotel was fully booked (our room was on the 2nd floor on the same side as the office - this is the quiet side, away from the 405). The room was very spacious with a couch, standard room decor, but very clean. There was a nice sized fridge in the room too.  The pillows were decent and the bed was a little hard for me, but still got a reasonable nights sleep.  WiFi was hard to sign on to, but once that was accomplished, the speed was ok.Only 2 things to be aware of:  there is no coffee maker in your room and the dining area is pretty small for breakfast. When it's busy in there, it's hard to get to the food.Definitely would stay here again.More</t>
   </si>
   <si>
+    <t>346irenev</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r303543624-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -729,6 +813,9 @@
     <t>The place was clean , I didn't even see finger prints on the front doors , clean glass . The service desk was professional and friendly.To me that tells if a place is kept up its all the little things.     More</t>
   </si>
   <si>
+    <t>weteach678</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r295972484-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -753,6 +840,9 @@
     <t>Clean updated rooms, loved the option to walk out on balcony. (Beautiful sunset) Walking distance from at least three restaurants. (Cocos, Carl Jr, and Baha Tacos) Great value when compared to other hotels in the area.  More</t>
   </si>
   <si>
+    <t>ljinbs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r295862856-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -777,6 +867,9 @@
     <t>We stayed here to be close to Irvine Meadows. The room was clean and included a microwave, refrigerator, and coffee maker. The only thing it didn't have is a blow dryer. For a lower end motel, this was very nice and comparable to other hotels we were looking at in the area. It was a little expensive compared to nicer hotels I've stayed at for less but since it was clean and conveniently located, we were very happy. The only problem was the parking lot is small and at the end of the night, all the parking spaces were taken. Very nice staff and they even have a small pool.More</t>
   </si>
   <si>
+    <t>Conniemama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r292488514-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -795,6 +888,9 @@
     <t>Good price and the staff was friendly and helpful,  Our room was clean and the king bed was comfortable.  There is a fridge and micro wave.  Breakfast was typical.  They had the plates in the corner which had all the guests reaching over each other to get started with their breakfast.   We went to an Angels game and it took us about 45 minutes.  We had traffic.  More</t>
   </si>
   <si>
+    <t>Cheryl D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r277219130-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -816,6 +912,9 @@
     <t>This was recommended by a co-worker - I should have passed. It's a very marginal motel with average rooms and a less-than-average breakfast. It was also noisy, as the door to the room opens to the outside rather than a hallway. I would not stay here again. More</t>
   </si>
   <si>
+    <t>JessLV14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r274913352-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -837,6 +936,9 @@
     <t>This was a nice little hotel to stay in on our last minute trip to Laguna. It was only a ten minute drive down to the beach. There was a amazing little pizza shop in walking distance. The continental breakfast was not so good and the pool was not open when it was due to beMore</t>
   </si>
   <si>
+    <t>Jayda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r260134385-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -858,6 +960,9 @@
     <t>I stayed at this property one night for work. I had a ground floor room. It was clean and the bathroom was modern. Check in took about 15 minutes as only one person was working when i checked in. Breakfast was fairly dull, Waffles or sausage breakfast muffins. I would stay again as it is close to my work. Price is good compared to hotels in the area.More</t>
   </si>
   <si>
+    <t>RainbowCowboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r259163733-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -879,6 +984,9 @@
     <t>I enjoyed this hotel.  The room we got has new carpet so it has an odor but it doesn't bother us.  I'd rather a new carpet smell than some unknown odor.  The check-in process was smooth and quick.  The room overall was clean and comfortable.  Everything was in working order.  We got a room on the third floor so that was great!  What I liked most was the proximity to the Irvine Spectrum shopping mall and is surrounded by mostly offices.  Breakfast was good and typical for a Comfort Inn.  Check-out was quick and simple as well.  Since I used my points I didn't have to pay for anything for two nights.  Would stay here again.More</t>
   </si>
   <si>
+    <t>Lighthammer2531</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r252919943-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -897,6 +1005,9 @@
     <t>This place is well located, very clean, and very quiet.  No grimy feeling, and didn't feel like a meth addict was going to jump out and mug me.  The service was good, and the staff was pleasant.  When bargain hunting for hotels, I often worry about what I am going to encounter when I get there.  I this case, I was pleasantly surprised.  When I left and came back, I didn't feel like I had to have my head on a swivel (even though I always keep my head on a swivel).  I would stay at this hotel again.More</t>
   </si>
   <si>
+    <t>Anika10071989</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r219080313-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -918,6 +1029,9 @@
     <t>I stayed in this hotel for 40 days. The stay was very comfortable. The staff and their amenities are very good. The breakfast is also good and has a variety of options to choose. The ambiance is noise free.More</t>
   </si>
   <si>
+    <t>sawblade86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r217467225-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -936,6 +1050,9 @@
     <t>The hotel is okay.  The rooms were clean and the breakfast wasn't bad.  However, the hotel is really old.  That, and the fact that the elevator is a sardine can and slower than molasses.  Overall, the place isn't bad.  Considering what our rate was, I just expected a little better. More</t>
   </si>
   <si>
+    <t>Tora S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r216494438-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -957,6 +1074,9 @@
     <t>Stayed here for a quick business trip this week. It was clean, beds were very comfortable and the front office staff were very nice and helpful. Breakfast variety was pretty small but if you just need coffee and a waffle, you are all set! Really good deal for the price and would gladly stay there again.More</t>
   </si>
   <si>
+    <t>PeterL629</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r201838576-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -984,6 +1104,9 @@
     <t>The staff was great and always happy.The young lady at the front desk very helpful.She kept the AM buffet going and always had a smile.The only thing missing was an exercise room.I will see them next yearMore</t>
   </si>
   <si>
+    <t>8069sa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r195617461-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1011,6 +1134,9 @@
     <t>$75; very clean and quiet.  A good night's sleep; free breakfast and wifi. I'll stay there again. About 15 minutes from John Wayne Airport down the 405.  Free parking too.  And a few more characters to get to 200 minimum......... Thybuioknbfresxc vuiol,nbvrescvhuikmiiijjjjjnnbgftyuiooo Holt bleep how many characters does it take to get to 200!!!!!!nbvfewxcvhnkool,mbbgyuiol,mbvrescvMore</t>
   </si>
   <si>
+    <t>Jeffery T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r193121717-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1038,6 +1164,9 @@
     <t>Quiet location, nice Jacuzzi, above average breakfast, professional staff.  Edwin on the night shift was especially friendly and helpful.  My companion is sensitive to noise and various odors, and this hotel passed her exam.More</t>
   </si>
   <si>
+    <t>steinbn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r176127967-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1059,6 +1188,9 @@
     <t>I took my two boy's here for two nights while visiting friends and it was clean and the staff was courteous but after going to amusement parks all day I wanted to sit in the hot tub and use the pool ~ it closed at 9:00 and they put a pad lock on it. It seemed a little early for me. There was no coffee makers in the room which would have been nice.More</t>
   </si>
   <si>
+    <t>t0309999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r159204852-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1080,6 +1212,9 @@
     <t>Stayed here for 1 night. the staff is really nice but not the best hotel. it was dirty and did not feel safe and very noisy. Internet and parking is free. will not be back. rather stay at another hotelMore</t>
   </si>
   <si>
+    <t>Brandon E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r148752896-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1101,6 +1236,9 @@
     <t>I had flight problems with cancelled flights due to bad weather in Chicago and called the hotel to let them know I might not get a flight and the desk clerk said no problem she would allow me to use my two nights stay beginning the next night. I did get a late night flight out and arrived at the hotel at 4 am but the desk clerk said I could not check in as his computer had me arriving later. He advised me I could pay $89 plus tax to check even though my rooms were prepaid. To make a long story short, I slept in my car in the parking lot.The room upon checkin after 4 pm had two neighbor room's air conditioning fans howling and making loud striking noises which I was told by the clerk was out of her hands and should not bother me much when in my room. Superb maintenance and customer service were not available at this property. Not a great stay for me and wish I had chosen the Best Western rather than Comfort Inn Irvine.More</t>
   </si>
   <si>
+    <t>southwales2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r142666191-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1122,6 +1260,9 @@
     <t>We stayed at this hotel as we wanted a base for exploring South of LA and we weren't disappointed.  We were allowed to check in at 12 so were able to take the opportunity to use the pool and hot tub for the afternoon which was deserted but well maintained.The room was large, clean and comfortable with good wifi and cable tv.  It is located about 20 minutes drive from Laguna beach which made it a more affordable option but easy to access with a car.  We also explored nearby Huntington Beach and Newport Beach while we were there.  Breakfast was excellent in a very comfortable room off reception with lots of choice and plenty of tables. The Irvine Spectrum Centre is very close by with plenty of big name stores for shopping and also a cinema and a number of eateries. We ate at the nearby Woodies Diner which was excellent and worth a visit.  A tip if you are visiting Laguna Beach, parking is very limited and expensive with parking meters in most streets, there is however a free car park 10 minutes walk from the centre on Canyon Road which saved us some dollars.Overall very comfortable stay in great location just off freeway.More</t>
   </si>
   <si>
+    <t>vioet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r141869705-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1143,6 +1284,9 @@
     <t>Very comfortable! We stayed there for a concert we were attending at the Verizon Amptheater and I was very impressed with the comfort and cleanliness. The decor was modern. The staff extremely helpful. I asked for a local cab company and they arranged a shuttle style service that was very cost effective, and comfortable - they had arranged it even prior to me calling the company! The service knew who I was when I called, very personable service both the shuttle and the front desk! The shuttle service was waiting for us when the concert ended, very enjoyable experience!  The king size bed was so very comfortable! Really enjoyed staying here. We missed the breakfast that ended at 9am because we were so cozy sleeping. The only recommendation I would make is to avoid any rooms near the ice maker machine. It seemed like folks were getting ice at all hours of the night and morning and although we were on the floor above, it was loud and annoying, but not enough for me to complain or ruin an otherwise very enjoyable experience.More</t>
   </si>
   <si>
+    <t>Justin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r136846942-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1164,6 +1308,9 @@
     <t>The Comfort Inn of Laguna Hills, CA was a great value for what my wife and I needed it for.  We went to a concert at the Verizon Wireless Amphitheater in Irvine which was approximately 1 mile away in order to network with certain people for a business venture.  The hotel is in a great location central to restaurants, and the venue we were going to in the evening.  The staff was friendly and seemed eager to make our stay pleasant.  The rooms were an 8 out of 10 in cleanliness and the beds were very comfortable.  The pool and hot tub were also well maintained, clean, and at a comfortable temperature.  Its close proximity to the freeway was very convenient and didn't impede on the relaxing atmosphere by the pool.  The furniture by the pool is that of the cheap plastic home depot type furniture but it did its job well and was clean.  I really have no complaints as their wasn't much that was below standard at this hotel.  Though it didn't exceed my expectations it completely met them which is kind of rare these days it would seem.  The price point is slightly higher then I would have liked but I don't feel bad about it since everything went well, I got a good night sleep, and my wife and I had a good time.  Overall I would recommend this hotel for anyone looking for a clean,...The Comfort Inn of Laguna Hills, CA was a great value for what my wife and I needed it for.  We went to a concert at the Verizon Wireless Amphitheater in Irvine which was approximately 1 mile away in order to network with certain people for a business venture.  The hotel is in a great location central to restaurants, and the venue we were going to in the evening.  The staff was friendly and seemed eager to make our stay pleasant.  The rooms were an 8 out of 10 in cleanliness and the beds were very comfortable.  The pool and hot tub were also well maintained, clean, and at a comfortable temperature.  Its close proximity to the freeway was very convenient and didn't impede on the relaxing atmosphere by the pool.  The furniture by the pool is that of the cheap plastic home depot type furniture but it did its job well and was clean.  I really have no complaints as their wasn't much that was below standard at this hotel.  Though it didn't exceed my expectations it completely met them which is kind of rare these days it would seem.  The price point is slightly higher then I would have liked but I don't feel bad about it since everything went well, I got a good night sleep, and my wife and I had a good time.  Overall I would recommend this hotel for anyone looking for a clean, basic, comfortable room to sleep in while conducting business or pleasureful activities in the area for a short time.More</t>
   </si>
   <si>
+    <t>Hankmax</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r125902288-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1182,6 +1329,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>Julibean18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r119060156-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1197,6 +1347,9 @@
     <t>Friendly front desk staff, room was comfortable and super-clean. Looked recently renovated. No odors, no wear or grossness. Free wifi was quick. Fridge and microwave in room along with iron and hair dryer. Would def stay again!</t>
   </si>
   <si>
+    <t>wavemasher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r114589229-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1216,6 +1369,9 @@
   </si>
   <si>
     <t>I travel every couple of weeks to see my fiancée and wanted to be close to John Wayne Airport and be able to head to San Juan Capistrano or Dana Point in a relative short time.The room was big enough and clean and nicely laid-out. I reserved the whirlpool and found it to be roomy and delightful. Mind you, this is not a complaint but turning on the jets shot powerful blasts of water that extinguished all of the carefully lit candles around the whirlpool. Yes, we found the control to turn it down but laughed about the powerful jets the whole evening. The hotel was very convenient to access the freeway, close to the Spectrum, and quiet although very full with guests. Staff was very cordial, breakfast was good, and we had an enjoyable time. I will go back.More</t>
+  </si>
+  <si>
+    <t>MJB_Max</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r82792327-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
@@ -1247,6 +1403,9 @@
 The comforter was stained and there were several different human hairs inter-tangled in it....Honestly, The Comfort Inn Laguna Hills was the most disgusting hotel I have ever stayed at!  I should have known when I made the reservation, the girl who answered the phone was so hard to understand, (I really don’t understand why a “Hospitality” business would allow an employee with poor communication skills and most the important of the intelligibility of the employee's pronunciation).In spite of this, I made the reservation and showed up to check-in and I was greeted by a women, who must have been having a hectic day because she was short with me and had absolutely no interest in assisting me in anyway.  I asked to speak with her manager, and she stated that her manger was Sarah, and she would be in the following morning at 7:00am.When I finally found my room I just wanted to take a long nap before dinner, but that would not happen.  The room smelled like mildew, there were water stains on the ceiling and dark stains on the carpet.  I found dirty towels behind the door; I suppose the maid forgot to take them with her after “cleaning” the room.  I phoned the front desk to ask if this was an error or was I given this room by mistake.  All she said was that she would send someone to pick-up the dirty towels.The comforter was stained and there were several different human hairs inter-tangled in it.  When I pulled back the sheets to them check out, I encounter another stain. Totally sickened at this point because I was sure this room had not been cleaned, I called the front desk and asked if I could be moved to a clean room.  I was told that there were no more clean rooms available.After spending the night in this room, I am sure the bed was infested with bed bugs and the walls were paper thin.In the morning I went into the lobby and witnessed one employee disciplining another employee at the front desk in a very condescending manner.  I waited at the front desk for a few seconds for the unprofessional performance to come to an end, and then asked to speak with Sarah.  It was no surprise when I was greeted by the woman with the strong accent, who was scolding the employee, announcing that she was Sarah.   I explained all my concerns and disappointments about the hotel to Sarah and she just had no time for me.Long story short, Sarah was no help at all.  She was impolite and tactless.Bottom line, I will never stay at this hotel again and I would discourage anyone who is considering staying here.More</t>
   </si>
   <si>
+    <t>Julliet1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r65763625-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1270,6 +1429,9 @@
 At breakfast the next morning, (we got there around 9 AM and it opened at 6 AM) we were the only ones there and there was hardly any food left.  They had a waffle maker but the batter was in pre-measured cups and was sitting out.  I was afraid to use it because I didn't know how long it had been out and not refrigerated.  Ditto with the milk.  There was no coffee left so I asked the girl at the front desk if she could bring some.  And after waiting awhile,...My husband and I stayed here and it was the worst hotel of our 10-day CA vacation.  The woman at the front desk when we checked in was wonderful and very nice but that was about all that was nice about this place.  The first room they gave us stunk so much of air freshener that even opening the window wouldn't clear out the smell so we changed rooms.  That one had been sprayed also but wasn't as bad so we kept it and aired it out by opening the windows and running the fan.  There was nothing special about the room decor and the pictures on the web looked far nicer than the actual room.  The carpeting had stains on it which gave the room a bad feel.  The towels were thin and we had to ask for more as there were only enough for 1 person.  At breakfast the next morning, (we got there around 9 AM and it opened at 6 AM) we were the only ones there and there was hardly any food left.  They had a waffle maker but the batter was in pre-measured cups and was sitting out.  I was afraid to use it because I didn't know how long it had been out and not refrigerated.  Ditto with the milk.  There was no coffee left so I asked the girl at the front desk if she could bring some.  And after waiting awhile, I went to find her and she was standing there holding the coffee chatting with another woman who worked in the hotel.  I found this unacceptable since she knew I was waiting for it.  When I poured some coffee, it was lukewarm.  This was also the only hotel we stayed at that didn't have a computer in the lobby for guests to use because we wanted to use it to check-in for our flight before we left.This hotel needs an upgrade badly and better customer service.  I would never stay here again.More</t>
   </si>
   <si>
+    <t>dtbas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r58407030-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1289,6 +1451,9 @@
   </si>
   <si>
     <t>The front guest staff were always most courteous and always most helpful.  The woman who checked me in made every effort to meet all of my preferences regarding the room and exceeded my expectations.  The room was new (refurbished, i guess) and well decorated (not typical small hotel/motel cheap stuff).  The room was a more than adequate size with everything I requested.  It included both a fridge and a microwave.  Perhaps, best of all, the bathroom was very clean and no mildew in the cracks in the tile or around the bathtub.  Breakfast was typical and adequate.  The grounds are very nice and well kept.  The location is very quiet but convenient to all of central Orange County.  I recommend the Comfort Inn Irvine Spectrum without reservation.More</t>
+  </si>
+  <si>
+    <t>soozarty</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r23354798-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
@@ -1326,6 +1491,9 @@
 While staying there, the TV broke.  They did...I am a Choice Privileges member and have usually always enjoyed my stays at Comfort Inn locations across the country.  Unfortunately, I cannot say that about this property.  I stayed 3 days, mid-week and was extremely disappointed with this property.  The room was clean...that was about all I can say to recommend it.  There was a fridge but no microwave-in spite of being assured there was.  Also, no shampoo, conditioner, etc.  When I went down to the front desk to inquire, I was given shampoo only, and was told they didn't have microwaves by an extremely rude clerk.   I had forgotten toothpaste and although they had a sign in the room offering amenities you may have forgotten, I was told they didn't have any (not just toothpaste-no amenities at all).In the morning, I went down to breakfast and unlike the usual Comfort Inn deluxe continental breakfast, found no fresh fruit, juice, muffins, bagels, etc.  Also, no USA Today papers.  All of these are standard and are in fact advertised as being offered on the properties own website.  When I inquired, I was told the fruit had been "rejected" and all the papers gone-all 3 days of my stay.  I question that as the property was virtually empty.  Additionally-if the fruit delivered is unacceptable, how about running up the street to a grocery store since it is something you advertise as offering?While staying there, the TV broke.  They did replace it quickly, but with a TV that had no sound.The spa was filthy and I was disappointed that it stayed that way all 3 days.I would absolutely NOT recommend this property and suggest you try *anywhere* else.More</t>
   </si>
   <si>
+    <t>Jackflash777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r18733349-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1350,6 +1518,9 @@
     <t>I was looking for a place to stay in the area.  Some of the reviews scared me a bit, but other nearby hotels I was considering had even more terrible reviews, so I ended up choosing this one.  I think remodeling is done.  The bathroom looks all new, a new tub and granite shower walls.  My room was pretty spacious.  No 5 star hotel, but I was pretty happy with the hotel.  There are so many places to eat in 5 min drive.  Very convenient.More</t>
   </si>
   <si>
+    <t>Capn_Ryan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r12101113-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1374,6 +1545,9 @@
     <t>My stay at the Comfort Inn Irvine was the worst hotel stay I have ever had.  I arrived at the hotel at the correct check in time, but was told the room would not be ready for an hour.  Two hours later, we were allowed to check in.  The bathroom was filthy.  I could tell that somebody had used the restroom between the time it was cleaned and the time we checked in.  The bathroom was falling apart.  The air conditioner was also noisy.  There were construction workers repairing the hotel right outside of our room.  They began work before 8AM and were very noisy.I sent a detailed complaint to corporate Comfort Inn and received no response, although they decided to add me to their advertising mailing list.More</t>
   </si>
   <si>
+    <t>thej</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r5496435-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1393,6 +1567,9 @@
   </si>
   <si>
     <t>I stayed here for 4 nights - on business.  Many from my company also stayed here.  The motel - it is a motel - is in the process of updating some of the rooms - v e r y  s l o w l y -.  I did not have an updated room.  There is no closet - you hang your clothes by the sink.  Over the tub was a light fixture with an oversized florescent or halogen light hanging out the botton.  Nothing about the room is appealing to the eye or to your comfort.  When I arrived the tv didn't work, but it was fixed right away.  Later, the toilet stopped flushing and overflowed (thankfully I was on the ground level and the floor had a drain near the toilet ) - but it was also fixed right away.  There is nothing a tourist would enjoy close to the motel - such as shops, restaurants (other than a Carl's Jr and a Coco's) so you need to have a car.  The so-called breakfast was A W F U L!   It has been a long time since I've seen such an unpleasant assortment of food.  Yuck.  We would have moved to another hotel if we could have found one in the area that had a room available.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77486-r4984050-Comfort_Inn_at_Irvine_Spectrum-Laguna_Hills_California.html</t>
@@ -2005,43 +2182,47 @@
       <c r="A2" t="n">
         <v>20395</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>131161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2055,50 +2236,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>20395</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>131162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2116,50 +2301,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>20395</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>131163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2179,50 +2368,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>20395</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>131164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2236,50 +2429,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20395</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>13372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2297,50 +2494,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20395</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>364</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2358,50 +2559,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>20395</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>131165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2421,50 +2626,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>20395</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>5513</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2482,50 +2691,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>20395</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>131166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2539,50 +2752,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>20395</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>44865</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2602,50 +2819,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>20395</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>131167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2659,50 +2880,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>20395</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>26000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2716,50 +2941,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>20395</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>131168</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2773,50 +3002,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>20395</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>131169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2830,50 +3063,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>20395</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>131170</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>138</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16" t="s">
-        <v>129</v>
-      </c>
-      <c r="K16" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>126</v>
-      </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2893,41 +3130,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>20395</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>131171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
@@ -2946,50 +3187,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>20395</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>131172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3003,50 +3248,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>20395</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>131173</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O19" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3064,50 +3313,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>20395</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>131174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3125,56 +3378,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="X20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20395</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>131175</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3186,56 +3443,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="X21" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20395</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>74539</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3247,56 +3508,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="X22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20395</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>131176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3308,56 +3573,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="X23" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>20395</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>131177</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3373,56 +3642,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="X24" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="Y24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>20395</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>131178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3444,56 +3717,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="X25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>20395</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3509,56 +3786,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="X26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>20395</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>10426</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3580,56 +3861,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20395</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>131179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3641,56 +3926,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="X28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="Y28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20395</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>131180</v>
+      </c>
+      <c r="C29" t="s">
+        <v>255</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3712,56 +4001,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="X29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="Y29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>20395</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>131181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3773,56 +4066,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="X30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="Y30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>20395</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>131182</v>
+      </c>
+      <c r="C31" t="s">
+        <v>274</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="O31" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3840,47 +4137,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="X31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="Y31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>20395</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>17478</v>
+      </c>
+      <c r="C32" t="s">
+        <v>283</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
@@ -3897,56 +4198,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="X32" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="Y32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>20395</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>17711</v>
+      </c>
+      <c r="C33" t="s">
+        <v>290</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3958,56 +4263,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="X33" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>20395</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>131183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>298</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4019,56 +4328,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="X34" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="Y34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20395</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>131184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>306</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="J35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4080,56 +4393,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="X35" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="Y35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>20395</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>131185</v>
+      </c>
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="J36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="K36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="O36" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4145,56 +4462,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="X36" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20395</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>131186</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="O37" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4212,56 +4533,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="X37" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>20395</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>131187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="O38" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4279,47 +4604,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="X38" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="Y38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>20395</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>131188</v>
+      </c>
+      <c r="C39" t="s">
+        <v>337</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="J39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
@@ -4346,56 +4675,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="X39" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="Y39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>20395</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>131189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>344</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="J40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="K40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4413,56 +4746,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="X40" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="Y40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>20395</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>131190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="J41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="K41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="O41" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4484,56 +4821,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="X41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="Y41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>20395</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>131191</v>
+      </c>
+      <c r="C42" t="s">
+        <v>362</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="J42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="K42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4545,56 +4886,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="X42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="Y42" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>20395</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>131192</v>
+      </c>
+      <c r="C43" t="s">
+        <v>372</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="J43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="K43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="O43" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4616,56 +4961,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="X43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Y43" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>20395</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>131193</v>
+      </c>
+      <c r="C44" t="s">
+        <v>382</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="J44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="K44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="L44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="O44" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4687,56 +5036,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="X44" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Y44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>20395</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>21778</v>
+      </c>
+      <c r="C45" t="s">
+        <v>390</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="J45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="K45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="L45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4756,56 +5109,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="X45" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Y45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>20395</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>55375</v>
+      </c>
+      <c r="C46" t="s">
+        <v>398</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="J46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="K46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="L46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -4827,56 +5184,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="X46" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Y46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>20395</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>131194</v>
+      </c>
+      <c r="C47" t="s">
+        <v>406</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="J47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="K47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="O47" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4898,56 +5259,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="X47" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Y47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>20395</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>131195</v>
+      </c>
+      <c r="C48" t="s">
+        <v>414</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="J48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="K48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="O48" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4969,56 +5334,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="X48" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Y48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>20395</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>422</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="J49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="K49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="L49" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5040,56 +5409,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="X49" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Y49" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>20395</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>131196</v>
+      </c>
+      <c r="C50" t="s">
+        <v>430</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="J50" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="K50" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="L50" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="O50" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5113,41 +5486,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>20395</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>131197</v>
+      </c>
+      <c r="C51" t="s">
+        <v>437</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="J51" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="K51" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="L51" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
@@ -5176,50 +5553,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>20395</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>121102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>443</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="K52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="O52" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5239,50 +5620,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>20395</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>131198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>451</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="J53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="K53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="L53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5306,50 +5691,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>20395</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>131199</v>
+      </c>
+      <c r="C54" t="s">
+        <v>459</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="J54" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="K54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="L54" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="O54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -5373,50 +5762,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>20395</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>131200</v>
+      </c>
+      <c r="C55" t="s">
+        <v>467</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="J55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="K55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="L55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5440,50 +5833,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>20395</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>131201</v>
+      </c>
+      <c r="C56" t="s">
+        <v>475</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="J56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="K56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="L56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="O56" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5505,56 +5902,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="X56" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="Y56" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>20395</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>131202</v>
+      </c>
+      <c r="C57" t="s">
+        <v>485</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="J57" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="K57" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="L57" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5576,47 +5977,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="X57" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="Y57" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>20395</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>131203</v>
+      </c>
+      <c r="C58" t="s">
+        <v>494</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="J58" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="K58" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="L58" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
@@ -5633,56 +6038,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="X58" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="Y58" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>20395</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>131204</v>
+      </c>
+      <c r="C59" t="s">
+        <v>503</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="J59" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="K59" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="L59" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -5704,47 +6113,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="X59" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="Y59" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>20395</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>511</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="J60" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="K60" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="L60" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
@@ -5769,56 +6182,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="X60" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="Y60" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>20395</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>511</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="J61" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="K61" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="L61" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5838,47 +6255,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="X61" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="Y61" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>20395</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>511</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="J62" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="K62" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="L62" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -5903,56 +6324,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="X62" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="Y62" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>20395</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>511</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="J63" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="K63" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="L63" t="s">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -5972,47 +6397,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="X63" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="Y63" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>20395</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>511</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="J64" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="K64" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="L64" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6029,13 +6458,13 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="X64" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="Y64" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_124.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_124.xlsx
@@ -2183,7 +2183,7 @@
         <v>20395</v>
       </c>
       <c r="B2" t="n">
-        <v>131161</v>
+        <v>161917</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2244,7 +2244,7 @@
         <v>20395</v>
       </c>
       <c r="B3" t="n">
-        <v>131162</v>
+        <v>161918</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -2309,7 +2309,7 @@
         <v>20395</v>
       </c>
       <c r="B4" t="n">
-        <v>131163</v>
+        <v>161919</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -2376,7 +2376,7 @@
         <v>20395</v>
       </c>
       <c r="B5" t="n">
-        <v>131164</v>
+        <v>161920</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -2567,7 +2567,7 @@
         <v>20395</v>
       </c>
       <c r="B8" t="n">
-        <v>131165</v>
+        <v>161921</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
@@ -2699,7 +2699,7 @@
         <v>20395</v>
       </c>
       <c r="B10" t="n">
-        <v>131166</v>
+        <v>161922</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -2827,7 +2827,7 @@
         <v>20395</v>
       </c>
       <c r="B12" t="n">
-        <v>131167</v>
+        <v>161923</v>
       </c>
       <c r="C12" t="s">
         <v>123</v>
@@ -2949,7 +2949,7 @@
         <v>20395</v>
       </c>
       <c r="B14" t="n">
-        <v>131168</v>
+        <v>161924</v>
       </c>
       <c r="C14" t="s">
         <v>139</v>
@@ -3010,7 +3010,7 @@
         <v>20395</v>
       </c>
       <c r="B15" t="n">
-        <v>131169</v>
+        <v>161925</v>
       </c>
       <c r="C15" t="s">
         <v>146</v>
@@ -3071,7 +3071,7 @@
         <v>20395</v>
       </c>
       <c r="B16" t="n">
-        <v>131170</v>
+        <v>161926</v>
       </c>
       <c r="C16" t="s">
         <v>152</v>
@@ -3138,7 +3138,7 @@
         <v>20395</v>
       </c>
       <c r="B17" t="n">
-        <v>131171</v>
+        <v>161927</v>
       </c>
       <c r="C17" t="s">
         <v>157</v>
@@ -3195,7 +3195,7 @@
         <v>20395</v>
       </c>
       <c r="B18" t="n">
-        <v>131172</v>
+        <v>161928</v>
       </c>
       <c r="C18" t="s">
         <v>163</v>
@@ -3256,7 +3256,7 @@
         <v>20395</v>
       </c>
       <c r="B19" t="n">
-        <v>131173</v>
+        <v>161929</v>
       </c>
       <c r="C19" t="s">
         <v>168</v>
@@ -3321,7 +3321,7 @@
         <v>20395</v>
       </c>
       <c r="B20" t="n">
-        <v>131174</v>
+        <v>161930</v>
       </c>
       <c r="C20" t="s">
         <v>175</v>
@@ -3392,7 +3392,7 @@
         <v>20395</v>
       </c>
       <c r="B21" t="n">
-        <v>131175</v>
+        <v>161931</v>
       </c>
       <c r="C21" t="s">
         <v>185</v>
@@ -3522,7 +3522,7 @@
         <v>20395</v>
       </c>
       <c r="B23" t="n">
-        <v>131176</v>
+        <v>161932</v>
       </c>
       <c r="C23" t="s">
         <v>202</v>
@@ -3587,7 +3587,7 @@
         <v>20395</v>
       </c>
       <c r="B24" t="n">
-        <v>131177</v>
+        <v>161933</v>
       </c>
       <c r="C24" t="s">
         <v>210</v>
@@ -3656,7 +3656,7 @@
         <v>20395</v>
       </c>
       <c r="B25" t="n">
-        <v>131178</v>
+        <v>161934</v>
       </c>
       <c r="C25" t="s">
         <v>218</v>
@@ -3875,7 +3875,7 @@
         <v>20395</v>
       </c>
       <c r="B28" t="n">
-        <v>131179</v>
+        <v>132343</v>
       </c>
       <c r="C28" t="s">
         <v>246</v>
@@ -3940,7 +3940,7 @@
         <v>20395</v>
       </c>
       <c r="B29" t="n">
-        <v>131180</v>
+        <v>161935</v>
       </c>
       <c r="C29" t="s">
         <v>255</v>
@@ -4015,7 +4015,7 @@
         <v>20395</v>
       </c>
       <c r="B30" t="n">
-        <v>131181</v>
+        <v>161936</v>
       </c>
       <c r="C30" t="s">
         <v>265</v>
@@ -4080,7 +4080,7 @@
         <v>20395</v>
       </c>
       <c r="B31" t="n">
-        <v>131182</v>
+        <v>161937</v>
       </c>
       <c r="C31" t="s">
         <v>274</v>
@@ -4277,7 +4277,7 @@
         <v>20395</v>
       </c>
       <c r="B34" t="n">
-        <v>131183</v>
+        <v>161938</v>
       </c>
       <c r="C34" t="s">
         <v>298</v>
@@ -4342,7 +4342,7 @@
         <v>20395</v>
       </c>
       <c r="B35" t="n">
-        <v>131184</v>
+        <v>161939</v>
       </c>
       <c r="C35" t="s">
         <v>306</v>
@@ -4407,7 +4407,7 @@
         <v>20395</v>
       </c>
       <c r="B36" t="n">
-        <v>131185</v>
+        <v>161940</v>
       </c>
       <c r="C36" t="s">
         <v>314</v>
@@ -4476,7 +4476,7 @@
         <v>20395</v>
       </c>
       <c r="B37" t="n">
-        <v>131186</v>
+        <v>161941</v>
       </c>
       <c r="C37" t="s">
         <v>322</v>
@@ -4547,7 +4547,7 @@
         <v>20395</v>
       </c>
       <c r="B38" t="n">
-        <v>131187</v>
+        <v>161942</v>
       </c>
       <c r="C38" t="s">
         <v>329</v>
@@ -4618,7 +4618,7 @@
         <v>20395</v>
       </c>
       <c r="B39" t="n">
-        <v>131188</v>
+        <v>161943</v>
       </c>
       <c r="C39" t="s">
         <v>337</v>
@@ -4689,7 +4689,7 @@
         <v>20395</v>
       </c>
       <c r="B40" t="n">
-        <v>131189</v>
+        <v>161944</v>
       </c>
       <c r="C40" t="s">
         <v>344</v>
@@ -4760,7 +4760,7 @@
         <v>20395</v>
       </c>
       <c r="B41" t="n">
-        <v>131190</v>
+        <v>161945</v>
       </c>
       <c r="C41" t="s">
         <v>352</v>
@@ -4835,7 +4835,7 @@
         <v>20395</v>
       </c>
       <c r="B42" t="n">
-        <v>131191</v>
+        <v>161946</v>
       </c>
       <c r="C42" t="s">
         <v>362</v>
@@ -4900,7 +4900,7 @@
         <v>20395</v>
       </c>
       <c r="B43" t="n">
-        <v>131192</v>
+        <v>161947</v>
       </c>
       <c r="C43" t="s">
         <v>372</v>
@@ -4975,7 +4975,7 @@
         <v>20395</v>
       </c>
       <c r="B44" t="n">
-        <v>131193</v>
+        <v>161948</v>
       </c>
       <c r="C44" t="s">
         <v>382</v>
@@ -5198,7 +5198,7 @@
         <v>20395</v>
       </c>
       <c r="B47" t="n">
-        <v>131194</v>
+        <v>161949</v>
       </c>
       <c r="C47" t="s">
         <v>406</v>
@@ -5273,7 +5273,7 @@
         <v>20395</v>
       </c>
       <c r="B48" t="n">
-        <v>131195</v>
+        <v>161950</v>
       </c>
       <c r="C48" t="s">
         <v>414</v>
@@ -5423,7 +5423,7 @@
         <v>20395</v>
       </c>
       <c r="B50" t="n">
-        <v>131196</v>
+        <v>161951</v>
       </c>
       <c r="C50" t="s">
         <v>430</v>
@@ -5494,7 +5494,7 @@
         <v>20395</v>
       </c>
       <c r="B51" t="n">
-        <v>131197</v>
+        <v>161952</v>
       </c>
       <c r="C51" t="s">
         <v>437</v>
@@ -5628,7 +5628,7 @@
         <v>20395</v>
       </c>
       <c r="B53" t="n">
-        <v>131198</v>
+        <v>161953</v>
       </c>
       <c r="C53" t="s">
         <v>451</v>
@@ -5699,7 +5699,7 @@
         <v>20395</v>
       </c>
       <c r="B54" t="n">
-        <v>131199</v>
+        <v>161954</v>
       </c>
       <c r="C54" t="s">
         <v>459</v>
@@ -5770,7 +5770,7 @@
         <v>20395</v>
       </c>
       <c r="B55" t="n">
-        <v>131200</v>
+        <v>161955</v>
       </c>
       <c r="C55" t="s">
         <v>467</v>
@@ -5841,7 +5841,7 @@
         <v>20395</v>
       </c>
       <c r="B56" t="n">
-        <v>131201</v>
+        <v>161956</v>
       </c>
       <c r="C56" t="s">
         <v>475</v>
@@ -5916,7 +5916,7 @@
         <v>20395</v>
       </c>
       <c r="B57" t="n">
-        <v>131202</v>
+        <v>161957</v>
       </c>
       <c r="C57" t="s">
         <v>485</v>
@@ -5991,7 +5991,7 @@
         <v>20395</v>
       </c>
       <c r="B58" t="n">
-        <v>131203</v>
+        <v>161958</v>
       </c>
       <c r="C58" t="s">
         <v>494</v>
@@ -6052,7 +6052,7 @@
         <v>20395</v>
       </c>
       <c r="B59" t="n">
-        <v>131204</v>
+        <v>161959</v>
       </c>
       <c r="C59" t="s">
         <v>503</v>
